--- a/owlcms/src/main/resources/templates/registration/SBDE.xlsx
+++ b/owlcms/src/main/resources/templates/registration/SBDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\registration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2013361-A7B2-42CA-9762-17EEE7444844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5658871-65BB-4DEB-8BF4-F7B10A6093B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2805" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Athletes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_2Excel_BuiltIn__FilterDatabase_2_1">#REF!</definedName>
     <definedName name="_3Excel_BuiltIn_Criteria_1_1">Athletes!A1:CR106</definedName>
     <definedName name="_4Excel_BuiltIn_Criteria_2_1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Athletes!$N$3968:$AD$10676</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Athletes!$M$3969:$AC$10677</definedName>
     <definedName name="AFF." localSheetId="2">[1]Athletes!#REF!</definedName>
     <definedName name="AFF.">Athletes!#REF!</definedName>
     <definedName name="AFF._2">#REF!</definedName>
@@ -47,7 +47,7 @@
     <definedName name="CLUB">Athletes!#REF!</definedName>
     <definedName name="CLUB_2">#REF!</definedName>
     <definedName name="Collet">#REF!</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Athletes!$B$2:$AD$3968</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Athletes!$B$2:$AC$3969</definedName>
     <definedName name="demandé" localSheetId="2">[1]Athletes!#REF!</definedName>
     <definedName name="demandé">Athletes!#REF!</definedName>
     <definedName name="demandé_2">#REF!</definedName>
@@ -119,7 +119,7 @@
     <definedName name="tirage">Athletes!#REF!</definedName>
     <definedName name="tirage_2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="9" r:id="rId6"/>
   </pivotCaches>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="119">
   <si>
     <t>M/F</t>
   </si>
@@ -487,17 +487,23 @@
   </si>
   <si>
     <t>${t.get("ComputedWeightClass")}</t>
+  </si>
+  <si>
+    <t>${t.get("SubCategory")}</t>
+  </si>
+  <si>
+    <t>${l.subCategory}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="0.0;;"/>
-    <numFmt numFmtId="192" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0;;"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,13 +686,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -890,19 +889,6 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -1170,6 +1156,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1195,36 +1190,32 @@
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1235,35 +1226,26 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1286,14 +1268,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1314,11 +1293,11 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="192" fontId="2" fillId="28" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="28" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1336,44 +1315,32 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="192" fontId="2" fillId="28" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="28" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1388,42 +1355,46 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" pivotButton="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" pivotButton="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="36">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1463,7 +1434,87 @@
     <cellStyle name="Title" xfId="34" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="35" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="92">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2001,38 +2052,6 @@
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2135,7 +2154,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Jean-François Lamy" refreshedDate="45318.50998333333" createdVersion="1" refreshedVersion="8" recordCount="20" upgradeOnRefresh="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Jean-François Lamy" refreshedDate="45333.666685879631" createdVersion="8" refreshedVersion="8" recordCount="20" xr:uid="{00000000-000A-0000-FFFF-FFFF09000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G600" sheet="Group Data"/>
   </cacheSource>
@@ -2223,7 +2242,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2408,7 +2427,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="9" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" showDrill="0" showMemberPropertyTips="0" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable2" cacheId="9" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:L22" firstHeaderRow="2" firstDataRow="2" firstDataCol="6"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0">
@@ -2636,13 +2655,13 @@
     <i/>
   </colItems>
   <formats count="41">
-    <format dxfId="81">
+    <format dxfId="91">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="90">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="89">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2651,7 +2670,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2660,7 +2679,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2669,7 +2688,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2678,7 +2697,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2687,7 +2706,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2696,7 +2715,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2705,7 +2724,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2714,7 +2733,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2723,7 +2742,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2732,7 +2751,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2741,7 +2760,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2750,7 +2769,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2759,7 +2778,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2768,7 +2787,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2777,7 +2796,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2786,7 +2805,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2795,7 +2814,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2804,7 +2823,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2813,7 +2832,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2822,7 +2841,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2831,7 +2850,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2840,7 +2859,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2849,7 +2868,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2858,7 +2877,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2867,7 +2886,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2876,7 +2895,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2885,7 +2904,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2894,7 +2913,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2903,7 +2922,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2912,7 +2931,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2921,7 +2940,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2930,7 +2949,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2939,7 +2958,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2948,19 +2967,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="54">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" offset="A1" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="53">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" offset="A1" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="52">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" offset="A1" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="51">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3259,1078 +3278,4164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:II32"/>
+  <dimension ref="A1:IH159"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6:P6"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="11" width="6.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" style="3" customWidth="1"/>
-    <col min="14" max="17" width="26.5703125" style="1" customWidth="1"/>
-    <col min="18" max="21" width="14" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="8" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="1" customWidth="1"/>
+    <col min="13" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="19" width="14" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:243" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="30"/>
-      <c r="E1" s="32" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="24"/>
+      <c r="E1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="16" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="13"/>
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="67" t="s">
         <v>42</v>
       </c>
       <c r="N1" s="73"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-    </row>
-    <row r="2" spans="1:243" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+    </row>
+    <row r="2" spans="1:242" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="E2" s="32" t="s">
+      <c r="B2" s="19"/>
+      <c r="E2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="13"/>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:243" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:242" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="E3" s="32" t="s">
+      <c r="B3" s="21"/>
+      <c r="E3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:243" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:242" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="E4" s="32" t="s">
+      <c r="B4" s="20"/>
+      <c r="E4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="13"/>
-    </row>
-    <row r="5" spans="1:243" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="1:243" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:242" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:242" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-    </row>
-    <row r="7" spans="1:243" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="74" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+    </row>
+    <row r="7" spans="1:242" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-    </row>
-    <row r="8" spans="1:243" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+    </row>
+    <row r="8" spans="1:242" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+    </row>
+    <row r="9" spans="1:242" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="T9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="U9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="U8" s="15" t="s">
+      <c r="V9" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:243" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:242" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
-      <c r="AZ9" s="1"/>
-      <c r="BA9" s="1"/>
-      <c r="BB9" s="1"/>
-      <c r="BC9" s="1"/>
-      <c r="BD9" s="1"/>
-      <c r="BE9" s="1"/>
-      <c r="BF9" s="1"/>
-      <c r="BG9" s="1"/>
-      <c r="BH9" s="1"/>
-      <c r="BI9" s="1"/>
-      <c r="BJ9" s="1"/>
-      <c r="BK9" s="1"/>
-      <c r="BL9" s="1"/>
-      <c r="BM9" s="1"/>
-      <c r="BN9" s="1"/>
-      <c r="BO9" s="1"/>
-      <c r="BP9" s="1"/>
-      <c r="BQ9" s="1"/>
-      <c r="BR9" s="1"/>
-      <c r="BS9" s="1"/>
-      <c r="BT9" s="1"/>
-      <c r="BU9" s="1"/>
-      <c r="BV9" s="1"/>
-      <c r="BW9" s="1"/>
-      <c r="BX9" s="1"/>
-      <c r="BY9" s="1"/>
-      <c r="BZ9" s="1"/>
-      <c r="CA9" s="1"/>
-      <c r="CB9" s="1"/>
-      <c r="CC9" s="1"/>
-      <c r="CD9" s="1"/>
-      <c r="CE9" s="1"/>
-      <c r="CF9" s="1"/>
-      <c r="CG9" s="1"/>
-      <c r="CH9" s="1"/>
-      <c r="CI9" s="1"/>
-      <c r="CJ9" s="1"/>
-      <c r="CK9" s="1"/>
-      <c r="CL9" s="1"/>
-      <c r="CM9" s="1"/>
-      <c r="CN9" s="1"/>
-      <c r="CO9" s="1"/>
-      <c r="CP9" s="1"/>
-      <c r="CQ9" s="1"/>
-      <c r="CR9" s="1"/>
-      <c r="CS9" s="1"/>
-      <c r="CT9" s="1"/>
-      <c r="CU9" s="1"/>
-      <c r="CV9" s="1"/>
-      <c r="CW9" s="1"/>
-      <c r="CX9" s="1"/>
-      <c r="CY9" s="1"/>
-      <c r="CZ9" s="1"/>
-      <c r="DA9" s="1"/>
-      <c r="DB9" s="1"/>
-      <c r="DC9" s="1"/>
-      <c r="DD9" s="1"/>
-      <c r="DE9" s="1"/>
-      <c r="DF9" s="1"/>
-      <c r="DG9" s="1"/>
-      <c r="DH9" s="1"/>
-      <c r="DI9" s="1"/>
-      <c r="DJ9" s="1"/>
-      <c r="DK9" s="1"/>
-      <c r="DL9" s="1"/>
-      <c r="DM9" s="1"/>
-      <c r="DN9" s="1"/>
-      <c r="DO9" s="1"/>
-      <c r="DP9" s="1"/>
-      <c r="DQ9" s="1"/>
-      <c r="DR9" s="1"/>
-      <c r="DS9" s="1"/>
-      <c r="DT9" s="1"/>
-      <c r="DU9" s="1"/>
-      <c r="DV9" s="1"/>
-      <c r="DW9" s="1"/>
-      <c r="DX9" s="1"/>
-      <c r="DY9" s="1"/>
-      <c r="DZ9" s="1"/>
-      <c r="EA9" s="1"/>
-      <c r="EB9" s="1"/>
-      <c r="EC9" s="1"/>
-      <c r="ED9" s="1"/>
-      <c r="EE9" s="1"/>
-      <c r="EF9" s="1"/>
-      <c r="EG9" s="1"/>
-      <c r="EH9" s="1"/>
-      <c r="EI9" s="1"/>
-      <c r="EJ9" s="1"/>
-      <c r="EK9" s="1"/>
-      <c r="EL9" s="1"/>
-      <c r="EM9" s="1"/>
-      <c r="EN9" s="1"/>
-      <c r="EO9" s="1"/>
-      <c r="EP9" s="1"/>
-      <c r="EQ9" s="1"/>
-      <c r="ER9" s="1"/>
-      <c r="ES9" s="1"/>
-      <c r="ET9" s="1"/>
-      <c r="EU9" s="1"/>
-      <c r="EV9" s="1"/>
-      <c r="EW9" s="1"/>
-      <c r="EX9" s="1"/>
-      <c r="EY9" s="1"/>
-      <c r="EZ9" s="1"/>
-      <c r="FA9" s="1"/>
-      <c r="FB9" s="1"/>
-      <c r="FC9" s="1"/>
-      <c r="FD9" s="1"/>
-      <c r="FE9" s="1"/>
-      <c r="FF9" s="1"/>
-      <c r="FG9" s="1"/>
-      <c r="FH9" s="1"/>
-      <c r="FI9" s="1"/>
-      <c r="FJ9" s="1"/>
-      <c r="FK9" s="1"/>
-      <c r="FL9" s="1"/>
-      <c r="FM9" s="1"/>
-      <c r="FN9" s="1"/>
-      <c r="FO9" s="1"/>
-      <c r="FP9" s="1"/>
-      <c r="FQ9" s="1"/>
-      <c r="FR9" s="1"/>
-      <c r="FS9" s="1"/>
-      <c r="FT9" s="1"/>
-      <c r="FU9" s="1"/>
-      <c r="FV9" s="1"/>
-      <c r="FW9" s="1"/>
-      <c r="FX9" s="1"/>
-      <c r="FY9" s="1"/>
-      <c r="FZ9" s="1"/>
-      <c r="GA9" s="1"/>
-      <c r="GB9" s="1"/>
-      <c r="GC9" s="1"/>
-      <c r="GD9" s="1"/>
-      <c r="GE9" s="1"/>
-      <c r="GF9" s="1"/>
-      <c r="GG9" s="1"/>
-      <c r="GH9" s="1"/>
-      <c r="GI9" s="1"/>
-      <c r="GJ9" s="1"/>
-      <c r="GK9" s="1"/>
-      <c r="GL9" s="1"/>
-      <c r="GM9" s="1"/>
-      <c r="GN9" s="1"/>
-      <c r="GO9" s="1"/>
-      <c r="GP9" s="1"/>
-      <c r="GQ9" s="1"/>
-      <c r="GR9" s="1"/>
-      <c r="GS9" s="1"/>
-      <c r="GT9" s="1"/>
-      <c r="GU9" s="1"/>
-      <c r="GV9" s="1"/>
-      <c r="GW9" s="1"/>
-      <c r="GX9" s="1"/>
-      <c r="GY9" s="1"/>
-      <c r="GZ9" s="1"/>
-      <c r="HA9" s="1"/>
-      <c r="HB9" s="1"/>
-      <c r="HC9" s="1"/>
-      <c r="HD9" s="1"/>
-      <c r="HE9" s="1"/>
-      <c r="HF9" s="1"/>
-      <c r="HG9" s="1"/>
-      <c r="HH9" s="1"/>
-      <c r="HI9" s="1"/>
-      <c r="HJ9" s="1"/>
-      <c r="HK9" s="1"/>
-      <c r="HL9" s="1"/>
-      <c r="HM9" s="1"/>
-      <c r="HN9" s="1"/>
-      <c r="HO9" s="1"/>
-      <c r="HP9" s="1"/>
-      <c r="HQ9" s="1"/>
-      <c r="HR9" s="1"/>
-      <c r="HS9" s="1"/>
-      <c r="HT9" s="1"/>
-      <c r="HU9" s="1"/>
-      <c r="HV9" s="1"/>
-      <c r="HW9" s="1"/>
-      <c r="HX9" s="1"/>
-      <c r="HY9" s="1"/>
-      <c r="HZ9" s="1"/>
-      <c r="IA9" s="1"/>
-      <c r="IB9" s="1"/>
-      <c r="IC9" s="1"/>
-      <c r="ID9" s="2"/>
-      <c r="IE9" s="2"/>
-      <c r="IF9" s="4"/>
-      <c r="IG9" s="2"/>
-      <c r="IH9" s="2"/>
-      <c r="II9" s="2"/>
-    </row>
-    <row r="10" spans="1:243" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="I10" s="2"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10" s="1"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+      <c r="AR10"/>
+      <c r="AS10"/>
+      <c r="AT10"/>
+      <c r="AU10"/>
+      <c r="AV10"/>
+      <c r="AW10"/>
+      <c r="AX10"/>
+      <c r="AY10"/>
+      <c r="AZ10"/>
+      <c r="BA10"/>
+      <c r="BB10"/>
+      <c r="BC10"/>
+      <c r="BD10"/>
+      <c r="BE10"/>
+      <c r="BF10"/>
+      <c r="BG10"/>
+      <c r="BH10"/>
+      <c r="BI10"/>
+      <c r="BJ10"/>
+      <c r="BK10"/>
+      <c r="BL10"/>
+      <c r="BM10"/>
+      <c r="BN10"/>
+      <c r="BO10"/>
+      <c r="BP10"/>
+      <c r="BQ10"/>
+      <c r="BR10"/>
+      <c r="BS10"/>
+      <c r="BT10"/>
+      <c r="BU10"/>
+      <c r="BV10"/>
+      <c r="BW10"/>
+      <c r="BX10"/>
+      <c r="BY10"/>
+      <c r="BZ10"/>
+      <c r="CA10"/>
+      <c r="CB10"/>
+      <c r="CC10"/>
+      <c r="CD10"/>
+      <c r="CE10"/>
+      <c r="CF10"/>
+      <c r="CG10"/>
+      <c r="CH10"/>
+      <c r="CI10"/>
+      <c r="CJ10"/>
+      <c r="CK10"/>
+      <c r="CL10"/>
+      <c r="CM10"/>
+      <c r="CN10"/>
+      <c r="CO10"/>
+      <c r="CP10"/>
+      <c r="CQ10"/>
+      <c r="CR10"/>
+      <c r="CS10"/>
+      <c r="CT10"/>
+      <c r="CU10"/>
+      <c r="CV10"/>
+      <c r="CW10"/>
+      <c r="CX10"/>
+      <c r="CY10"/>
+      <c r="CZ10"/>
+      <c r="DA10"/>
+      <c r="DB10"/>
+      <c r="DC10"/>
+      <c r="DD10"/>
+      <c r="DE10"/>
+      <c r="DF10"/>
+      <c r="DG10"/>
+      <c r="DH10"/>
+      <c r="DI10"/>
+      <c r="DJ10"/>
+      <c r="DK10"/>
+      <c r="DL10"/>
+      <c r="DM10"/>
+      <c r="DN10"/>
+      <c r="DO10"/>
+      <c r="DP10"/>
+      <c r="DQ10"/>
+      <c r="DR10"/>
+      <c r="DS10"/>
+      <c r="DT10"/>
+      <c r="DU10"/>
+      <c r="DV10"/>
+      <c r="DW10"/>
+      <c r="DX10"/>
+      <c r="DY10"/>
+      <c r="DZ10"/>
+      <c r="EA10"/>
+      <c r="EB10"/>
+      <c r="EC10"/>
+      <c r="ED10"/>
+      <c r="EE10"/>
+      <c r="EF10"/>
+      <c r="EG10"/>
+      <c r="EH10"/>
+      <c r="EI10"/>
+      <c r="EJ10"/>
+      <c r="EK10"/>
+      <c r="EL10"/>
+      <c r="EM10"/>
+      <c r="EN10"/>
+      <c r="EO10"/>
+      <c r="EP10"/>
+      <c r="EQ10"/>
+      <c r="ER10"/>
+      <c r="ES10"/>
+      <c r="ET10"/>
+      <c r="EU10"/>
+      <c r="EV10"/>
+      <c r="EW10"/>
+      <c r="EX10"/>
+      <c r="EY10"/>
+      <c r="EZ10"/>
+      <c r="FA10"/>
+      <c r="FB10"/>
+      <c r="FC10"/>
+      <c r="FD10"/>
+      <c r="FE10"/>
+      <c r="FF10"/>
+      <c r="FG10"/>
+      <c r="FH10"/>
+      <c r="FI10"/>
+      <c r="FJ10"/>
+      <c r="FK10"/>
+      <c r="FL10"/>
+      <c r="FM10"/>
+      <c r="FN10"/>
+      <c r="FO10"/>
+      <c r="FP10"/>
+      <c r="FQ10"/>
+      <c r="FR10"/>
+      <c r="FS10"/>
+      <c r="FT10"/>
+      <c r="FU10"/>
+      <c r="FV10"/>
+      <c r="FW10"/>
+      <c r="FX10"/>
+      <c r="FY10"/>
+      <c r="FZ10"/>
+      <c r="GA10"/>
+      <c r="GB10"/>
+      <c r="GC10"/>
+      <c r="GD10"/>
+      <c r="GE10"/>
+      <c r="GF10"/>
+      <c r="GG10"/>
+      <c r="GH10"/>
+      <c r="GI10"/>
+      <c r="GJ10"/>
+      <c r="GK10"/>
+      <c r="GL10"/>
+      <c r="GM10"/>
+      <c r="GN10"/>
+      <c r="GO10"/>
+      <c r="GP10"/>
+      <c r="GQ10"/>
+      <c r="GR10"/>
+      <c r="GS10"/>
+      <c r="GT10"/>
+      <c r="GU10"/>
+      <c r="GV10"/>
+      <c r="GW10"/>
+      <c r="GX10"/>
+      <c r="GY10"/>
+      <c r="GZ10"/>
+      <c r="HA10"/>
+      <c r="HB10"/>
+      <c r="HC10"/>
+      <c r="HD10"/>
+      <c r="HE10"/>
+      <c r="HF10"/>
+      <c r="HG10"/>
+      <c r="HH10"/>
+      <c r="HI10"/>
+      <c r="HJ10"/>
+      <c r="HK10"/>
+      <c r="HL10"/>
+      <c r="HM10"/>
+      <c r="HN10"/>
+      <c r="HO10"/>
+      <c r="HP10"/>
+      <c r="HQ10"/>
+      <c r="HR10"/>
+      <c r="HS10"/>
+      <c r="HT10"/>
+      <c r="HU10"/>
+      <c r="HV10"/>
+      <c r="HW10"/>
+      <c r="HX10"/>
+      <c r="HY10"/>
+      <c r="HZ10"/>
+      <c r="IA10"/>
+      <c r="IB10"/>
+      <c r="IC10" s="1"/>
+      <c r="ID10" s="1"/>
+      <c r="IE10" s="2"/>
+      <c r="IF10" s="1"/>
+      <c r="IG10" s="1"/>
+      <c r="IH10" s="1"/>
+    </row>
+    <row r="11" spans="1:242" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D11" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F11" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G11" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H11" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="I11" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J11" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q11" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="R11" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="S11" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="T11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="U11" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="P10" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q10" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="R10" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="S10" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="T10" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="U10" s="55" t="s">
+      <c r="V11" s="45" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:243" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="ID11" s="2"/>
-      <c r="IE11" s="2"/>
-      <c r="IF11" s="4"/>
-      <c r="IG11" s="2"/>
-      <c r="IH11" s="2"/>
-      <c r="II11" s="2"/>
-    </row>
-    <row r="12" spans="1:243" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-    </row>
-    <row r="13" spans="1:243" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-    </row>
-    <row r="14" spans="1:243" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-    </row>
-    <row r="15" spans="1:243" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-    </row>
-    <row r="16" spans="1:243" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
+      <c r="E12" s="1"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="33"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="35"/>
+      <c r="IC12" s="1"/>
+      <c r="ID12" s="1"/>
+      <c r="IE12" s="2"/>
+      <c r="IF12" s="1"/>
+      <c r="IG12" s="1"/>
+      <c r="IH12" s="1"/>
+    </row>
+    <row r="13" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="8"/>
+    </row>
+    <row r="14" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="8"/>
+    </row>
+    <row r="15" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="8"/>
+    </row>
+    <row r="16" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="8"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="8"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="8"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="8"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="8"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="8"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="8"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="8"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="8"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="8"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="8"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="8"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="8"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="8"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="8"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="8"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="8"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="8"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="8"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="8"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="8"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="8"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="8"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="8"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="8"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="8"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="8"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="8"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="8"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="8"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="8"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="36"/>
+      <c r="V47" s="8"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="8"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="8"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="36"/>
+      <c r="U50" s="36"/>
+      <c r="V50" s="8"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
+      <c r="V51" s="8"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="36"/>
+      <c r="U52" s="36"/>
+      <c r="V52" s="8"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="36"/>
+      <c r="U53" s="36"/>
+      <c r="V53" s="8"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="36"/>
+      <c r="U54" s="36"/>
+      <c r="V54" s="8"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="36"/>
+      <c r="V55" s="8"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
+      <c r="V56" s="8"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="8"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="36"/>
+      <c r="U58" s="36"/>
+      <c r="V58" s="8"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="36"/>
+      <c r="U59" s="36"/>
+      <c r="V59" s="8"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="36"/>
+      <c r="U60" s="36"/>
+      <c r="V60" s="8"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="8"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="36"/>
+      <c r="U62" s="36"/>
+      <c r="V62" s="8"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="36"/>
+      <c r="U63" s="36"/>
+      <c r="V63" s="8"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="36"/>
+      <c r="U64" s="36"/>
+      <c r="V64" s="8"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="36"/>
+      <c r="U65" s="36"/>
+      <c r="V65" s="8"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="36"/>
+      <c r="U66" s="36"/>
+      <c r="V66" s="8"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="36"/>
+      <c r="U67" s="36"/>
+      <c r="V67" s="8"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="36"/>
+      <c r="U68" s="36"/>
+      <c r="V68" s="8"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="36"/>
+      <c r="U69" s="36"/>
+      <c r="V69" s="8"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="36"/>
+      <c r="U70" s="36"/>
+      <c r="V70" s="8"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="36"/>
+      <c r="U71" s="36"/>
+      <c r="V71" s="8"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="36"/>
+      <c r="U72" s="36"/>
+      <c r="V72" s="8"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="36"/>
+      <c r="U73" s="36"/>
+      <c r="V73" s="8"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="36"/>
+      <c r="U74" s="36"/>
+      <c r="V74" s="8"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="36"/>
+      <c r="U75" s="36"/>
+      <c r="V75" s="8"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="36"/>
+      <c r="U76" s="36"/>
+      <c r="V76" s="8"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="36"/>
+      <c r="U77" s="36"/>
+      <c r="V77" s="8"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="36"/>
+      <c r="U78" s="36"/>
+      <c r="V78" s="8"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="36"/>
+      <c r="U79" s="36"/>
+      <c r="V79" s="8"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="36"/>
+      <c r="U80" s="36"/>
+      <c r="V80" s="8"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="36"/>
+      <c r="U81" s="36"/>
+      <c r="V81" s="8"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="36"/>
+      <c r="U82" s="36"/>
+      <c r="V82" s="8"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="8"/>
+      <c r="T83" s="36"/>
+      <c r="U83" s="36"/>
+      <c r="V83" s="8"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="36"/>
+      <c r="U84" s="36"/>
+      <c r="V84" s="8"/>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="8"/>
+      <c r="S85" s="8"/>
+      <c r="T85" s="36"/>
+      <c r="U85" s="36"/>
+      <c r="V85" s="8"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="36"/>
+      <c r="U86" s="36"/>
+      <c r="V86" s="8"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="36"/>
+      <c r="U87" s="36"/>
+      <c r="V87" s="8"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="T88" s="36"/>
+      <c r="U88" s="36"/>
+      <c r="V88" s="8"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="36"/>
+      <c r="U89" s="36"/>
+      <c r="V89" s="8"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="36"/>
+      <c r="U90" s="36"/>
+      <c r="V90" s="8"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="36"/>
+      <c r="U91" s="36"/>
+      <c r="V91" s="8"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A92" s="15"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="8"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8"/>
+      <c r="T92" s="36"/>
+      <c r="U92" s="36"/>
+      <c r="V92" s="8"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="36"/>
+      <c r="U93" s="36"/>
+      <c r="V93" s="8"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A94" s="15"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="8"/>
+      <c r="R94" s="8"/>
+      <c r="S94" s="8"/>
+      <c r="T94" s="36"/>
+      <c r="U94" s="36"/>
+      <c r="V94" s="8"/>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A95" s="15"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+      <c r="Q95" s="8"/>
+      <c r="R95" s="8"/>
+      <c r="S95" s="8"/>
+      <c r="T95" s="36"/>
+      <c r="U95" s="36"/>
+      <c r="V95" s="8"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A96" s="15"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="36"/>
+      <c r="U96" s="36"/>
+      <c r="V96" s="8"/>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A97" s="15"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="8"/>
+      <c r="R97" s="8"/>
+      <c r="S97" s="8"/>
+      <c r="T97" s="36"/>
+      <c r="U97" s="36"/>
+      <c r="V97" s="8"/>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="31"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="8"/>
+      <c r="R98" s="8"/>
+      <c r="S98" s="8"/>
+      <c r="T98" s="36"/>
+      <c r="U98" s="36"/>
+      <c r="V98" s="8"/>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="31"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="8"/>
+      <c r="R99" s="8"/>
+      <c r="S99" s="8"/>
+      <c r="T99" s="36"/>
+      <c r="U99" s="36"/>
+      <c r="V99" s="8"/>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="31"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="8"/>
+      <c r="O100" s="8"/>
+      <c r="P100" s="8"/>
+      <c r="Q100" s="8"/>
+      <c r="R100" s="8"/>
+      <c r="S100" s="8"/>
+      <c r="T100" s="36"/>
+      <c r="U100" s="36"/>
+      <c r="V100" s="8"/>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="31"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+      <c r="Q101" s="8"/>
+      <c r="R101" s="8"/>
+      <c r="S101" s="8"/>
+      <c r="T101" s="36"/>
+      <c r="U101" s="36"/>
+      <c r="V101" s="8"/>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="31"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+      <c r="Q102" s="8"/>
+      <c r="R102" s="8"/>
+      <c r="S102" s="8"/>
+      <c r="T102" s="36"/>
+      <c r="U102" s="36"/>
+      <c r="V102" s="8"/>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="31"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+      <c r="Q103" s="8"/>
+      <c r="R103" s="8"/>
+      <c r="S103" s="8"/>
+      <c r="T103" s="36"/>
+      <c r="U103" s="36"/>
+      <c r="V103" s="8"/>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="31"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+      <c r="Q104" s="8"/>
+      <c r="R104" s="8"/>
+      <c r="S104" s="8"/>
+      <c r="T104" s="36"/>
+      <c r="U104" s="36"/>
+      <c r="V104" s="8"/>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="31"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="8"/>
+      <c r="P105" s="8"/>
+      <c r="Q105" s="8"/>
+      <c r="R105" s="8"/>
+      <c r="S105" s="8"/>
+      <c r="T105" s="36"/>
+      <c r="U105" s="36"/>
+      <c r="V105" s="8"/>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A106" s="15"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="31"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
+      <c r="Q106" s="8"/>
+      <c r="R106" s="8"/>
+      <c r="S106" s="8"/>
+      <c r="T106" s="36"/>
+      <c r="U106" s="36"/>
+      <c r="V106" s="8"/>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="31"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+      <c r="Q107" s="8"/>
+      <c r="R107" s="8"/>
+      <c r="S107" s="8"/>
+      <c r="T107" s="36"/>
+      <c r="U107" s="36"/>
+      <c r="V107" s="8"/>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="31"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+      <c r="Q108" s="8"/>
+      <c r="R108" s="8"/>
+      <c r="S108" s="8"/>
+      <c r="T108" s="36"/>
+      <c r="U108" s="36"/>
+      <c r="V108" s="8"/>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="31"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
+      <c r="Q109" s="8"/>
+      <c r="R109" s="8"/>
+      <c r="S109" s="8"/>
+      <c r="T109" s="36"/>
+      <c r="U109" s="36"/>
+      <c r="V109" s="8"/>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="31"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+      <c r="Q110" s="8"/>
+      <c r="R110" s="8"/>
+      <c r="S110" s="8"/>
+      <c r="T110" s="36"/>
+      <c r="U110" s="36"/>
+      <c r="V110" s="8"/>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="38"/>
+      <c r="I111" s="31"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
+      <c r="Q111" s="8"/>
+      <c r="R111" s="8"/>
+      <c r="S111" s="8"/>
+      <c r="T111" s="36"/>
+      <c r="U111" s="36"/>
+      <c r="V111" s="8"/>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="38"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="8"/>
+      <c r="P112" s="8"/>
+      <c r="Q112" s="8"/>
+      <c r="R112" s="8"/>
+      <c r="S112" s="8"/>
+      <c r="T112" s="36"/>
+      <c r="U112" s="36"/>
+      <c r="V112" s="8"/>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="38"/>
+      <c r="I113" s="31"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+      <c r="Q113" s="8"/>
+      <c r="R113" s="8"/>
+      <c r="S113" s="8"/>
+      <c r="T113" s="36"/>
+      <c r="U113" s="36"/>
+      <c r="V113" s="8"/>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A114" s="15"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="31"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="8"/>
+      <c r="R114" s="8"/>
+      <c r="S114" s="8"/>
+      <c r="T114" s="36"/>
+      <c r="U114" s="36"/>
+      <c r="V114" s="8"/>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A115" s="15"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="38"/>
+      <c r="I115" s="31"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="8"/>
+      <c r="O115" s="8"/>
+      <c r="P115" s="8"/>
+      <c r="Q115" s="8"/>
+      <c r="R115" s="8"/>
+      <c r="S115" s="8"/>
+      <c r="T115" s="36"/>
+      <c r="U115" s="36"/>
+      <c r="V115" s="8"/>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A116" s="15"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="23"/>
+      <c r="H116" s="38"/>
+      <c r="I116" s="31"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="8"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
+      <c r="Q116" s="8"/>
+      <c r="R116" s="8"/>
+      <c r="S116" s="8"/>
+      <c r="T116" s="36"/>
+      <c r="U116" s="36"/>
+      <c r="V116" s="8"/>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A117" s="15"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="23"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="31"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="8"/>
+      <c r="O117" s="8"/>
+      <c r="P117" s="8"/>
+      <c r="Q117" s="8"/>
+      <c r="R117" s="8"/>
+      <c r="S117" s="8"/>
+      <c r="T117" s="36"/>
+      <c r="U117" s="36"/>
+      <c r="V117" s="8"/>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A118" s="15"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="23"/>
+      <c r="H118" s="38"/>
+      <c r="I118" s="31"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="N118" s="8"/>
+      <c r="O118" s="8"/>
+      <c r="P118" s="8"/>
+      <c r="Q118" s="8"/>
+      <c r="R118" s="8"/>
+      <c r="S118" s="8"/>
+      <c r="T118" s="36"/>
+      <c r="U118" s="36"/>
+      <c r="V118" s="8"/>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A119" s="15"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="23"/>
+      <c r="H119" s="38"/>
+      <c r="I119" s="31"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="8"/>
+      <c r="N119" s="8"/>
+      <c r="O119" s="8"/>
+      <c r="P119" s="8"/>
+      <c r="Q119" s="8"/>
+      <c r="R119" s="8"/>
+      <c r="S119" s="8"/>
+      <c r="T119" s="36"/>
+      <c r="U119" s="36"/>
+      <c r="V119" s="8"/>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A120" s="15"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="31"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="8"/>
+      <c r="N120" s="8"/>
+      <c r="O120" s="8"/>
+      <c r="P120" s="8"/>
+      <c r="Q120" s="8"/>
+      <c r="R120" s="8"/>
+      <c r="S120" s="8"/>
+      <c r="T120" s="36"/>
+      <c r="U120" s="36"/>
+      <c r="V120" s="8"/>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A121" s="15"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="38"/>
+      <c r="I121" s="31"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="8"/>
+      <c r="O121" s="8"/>
+      <c r="P121" s="8"/>
+      <c r="Q121" s="8"/>
+      <c r="R121" s="8"/>
+      <c r="S121" s="8"/>
+      <c r="T121" s="36"/>
+      <c r="U121" s="36"/>
+      <c r="V121" s="8"/>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A122" s="15"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="38"/>
+      <c r="I122" s="31"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="8"/>
+      <c r="N122" s="8"/>
+      <c r="O122" s="8"/>
+      <c r="P122" s="8"/>
+      <c r="Q122" s="8"/>
+      <c r="R122" s="8"/>
+      <c r="S122" s="8"/>
+      <c r="T122" s="36"/>
+      <c r="U122" s="36"/>
+      <c r="V122" s="8"/>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A123" s="15"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="46"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="38"/>
+      <c r="I123" s="31"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="8"/>
+      <c r="N123" s="8"/>
+      <c r="O123" s="8"/>
+      <c r="P123" s="8"/>
+      <c r="Q123" s="8"/>
+      <c r="R123" s="8"/>
+      <c r="S123" s="8"/>
+      <c r="T123" s="36"/>
+      <c r="U123" s="36"/>
+      <c r="V123" s="8"/>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A124" s="15"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="23"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="31"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
+      <c r="N124" s="8"/>
+      <c r="O124" s="8"/>
+      <c r="P124" s="8"/>
+      <c r="Q124" s="8"/>
+      <c r="R124" s="8"/>
+      <c r="S124" s="8"/>
+      <c r="T124" s="36"/>
+      <c r="U124" s="36"/>
+      <c r="V124" s="8"/>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A125" s="15"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="23"/>
+      <c r="H125" s="38"/>
+      <c r="I125" s="31"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="8"/>
+      <c r="N125" s="8"/>
+      <c r="O125" s="8"/>
+      <c r="P125" s="8"/>
+      <c r="Q125" s="8"/>
+      <c r="R125" s="8"/>
+      <c r="S125" s="8"/>
+      <c r="T125" s="36"/>
+      <c r="U125" s="36"/>
+      <c r="V125" s="8"/>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="46"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="38"/>
+      <c r="I126" s="31"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="8"/>
+      <c r="N126" s="8"/>
+      <c r="O126" s="8"/>
+      <c r="P126" s="8"/>
+      <c r="Q126" s="8"/>
+      <c r="R126" s="8"/>
+      <c r="S126" s="8"/>
+      <c r="T126" s="36"/>
+      <c r="U126" s="36"/>
+      <c r="V126" s="8"/>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A127" s="15"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="46"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="38"/>
+      <c r="I127" s="31"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
+      <c r="N127" s="8"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+      <c r="Q127" s="8"/>
+      <c r="R127" s="8"/>
+      <c r="S127" s="8"/>
+      <c r="T127" s="36"/>
+      <c r="U127" s="36"/>
+      <c r="V127" s="8"/>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A128" s="15"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="46"/>
+      <c r="G128" s="23"/>
+      <c r="H128" s="38"/>
+      <c r="I128" s="31"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="8"/>
+      <c r="N128" s="8"/>
+      <c r="O128" s="8"/>
+      <c r="P128" s="8"/>
+      <c r="Q128" s="8"/>
+      <c r="R128" s="8"/>
+      <c r="S128" s="8"/>
+      <c r="T128" s="36"/>
+      <c r="U128" s="36"/>
+      <c r="V128" s="8"/>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A129" s="15"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="46"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="31"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="8"/>
+      <c r="M129" s="8"/>
+      <c r="N129" s="8"/>
+      <c r="O129" s="8"/>
+      <c r="P129" s="8"/>
+      <c r="Q129" s="8"/>
+      <c r="R129" s="8"/>
+      <c r="S129" s="8"/>
+      <c r="T129" s="36"/>
+      <c r="U129" s="36"/>
+      <c r="V129" s="8"/>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A130" s="15"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="46"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="38"/>
+      <c r="I130" s="31"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="8"/>
+      <c r="L130" s="8"/>
+      <c r="M130" s="8"/>
+      <c r="N130" s="8"/>
+      <c r="O130" s="8"/>
+      <c r="P130" s="8"/>
+      <c r="Q130" s="8"/>
+      <c r="R130" s="8"/>
+      <c r="S130" s="8"/>
+      <c r="T130" s="36"/>
+      <c r="U130" s="36"/>
+      <c r="V130" s="8"/>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A131" s="15"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="46"/>
+      <c r="G131" s="23"/>
+      <c r="H131" s="38"/>
+      <c r="I131" s="31"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
+      <c r="L131" s="8"/>
+      <c r="M131" s="8"/>
+      <c r="N131" s="8"/>
+      <c r="O131" s="8"/>
+      <c r="P131" s="8"/>
+      <c r="Q131" s="8"/>
+      <c r="R131" s="8"/>
+      <c r="S131" s="8"/>
+      <c r="T131" s="36"/>
+      <c r="U131" s="36"/>
+      <c r="V131" s="8"/>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A132" s="15"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="46"/>
+      <c r="G132" s="23"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="31"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="8"/>
+      <c r="N132" s="8"/>
+      <c r="O132" s="8"/>
+      <c r="P132" s="8"/>
+      <c r="Q132" s="8"/>
+      <c r="R132" s="8"/>
+      <c r="S132" s="8"/>
+      <c r="T132" s="36"/>
+      <c r="U132" s="36"/>
+      <c r="V132" s="8"/>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A133" s="15"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="23"/>
+      <c r="H133" s="38"/>
+      <c r="I133" s="31"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="8"/>
+      <c r="M133" s="8"/>
+      <c r="N133" s="8"/>
+      <c r="O133" s="8"/>
+      <c r="P133" s="8"/>
+      <c r="Q133" s="8"/>
+      <c r="R133" s="8"/>
+      <c r="S133" s="8"/>
+      <c r="T133" s="36"/>
+      <c r="U133" s="36"/>
+      <c r="V133" s="8"/>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A134" s="15"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="46"/>
+      <c r="G134" s="23"/>
+      <c r="H134" s="38"/>
+      <c r="I134" s="31"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="8"/>
+      <c r="M134" s="8"/>
+      <c r="N134" s="8"/>
+      <c r="O134" s="8"/>
+      <c r="P134" s="8"/>
+      <c r="Q134" s="8"/>
+      <c r="R134" s="8"/>
+      <c r="S134" s="8"/>
+      <c r="T134" s="36"/>
+      <c r="U134" s="36"/>
+      <c r="V134" s="8"/>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A135" s="15"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="46"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="38"/>
+      <c r="I135" s="31"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="8"/>
+      <c r="L135" s="8"/>
+      <c r="M135" s="8"/>
+      <c r="N135" s="8"/>
+      <c r="O135" s="8"/>
+      <c r="P135" s="8"/>
+      <c r="Q135" s="8"/>
+      <c r="R135" s="8"/>
+      <c r="S135" s="8"/>
+      <c r="T135" s="36"/>
+      <c r="U135" s="36"/>
+      <c r="V135" s="8"/>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A136" s="15"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="46"/>
+      <c r="G136" s="23"/>
+      <c r="H136" s="38"/>
+      <c r="I136" s="31"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="8"/>
+      <c r="P136" s="8"/>
+      <c r="Q136" s="8"/>
+      <c r="R136" s="8"/>
+      <c r="S136" s="8"/>
+      <c r="T136" s="36"/>
+      <c r="U136" s="36"/>
+      <c r="V136" s="8"/>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A137" s="15"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="46"/>
+      <c r="G137" s="23"/>
+      <c r="H137" s="38"/>
+      <c r="I137" s="31"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="8"/>
+      <c r="M137" s="8"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="8"/>
+      <c r="P137" s="8"/>
+      <c r="Q137" s="8"/>
+      <c r="R137" s="8"/>
+      <c r="S137" s="8"/>
+      <c r="T137" s="36"/>
+      <c r="U137" s="36"/>
+      <c r="V137" s="8"/>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A138" s="15"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="46"/>
+      <c r="G138" s="23"/>
+      <c r="H138" s="38"/>
+      <c r="I138" s="31"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="8"/>
+      <c r="L138" s="8"/>
+      <c r="M138" s="8"/>
+      <c r="N138" s="8"/>
+      <c r="O138" s="8"/>
+      <c r="P138" s="8"/>
+      <c r="Q138" s="8"/>
+      <c r="R138" s="8"/>
+      <c r="S138" s="8"/>
+      <c r="T138" s="36"/>
+      <c r="U138" s="36"/>
+      <c r="V138" s="8"/>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A139" s="15"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="46"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="38"/>
+      <c r="I139" s="31"/>
+      <c r="J139" s="8"/>
+      <c r="K139" s="8"/>
+      <c r="L139" s="8"/>
+      <c r="M139" s="8"/>
+      <c r="N139" s="8"/>
+      <c r="O139" s="8"/>
+      <c r="P139" s="8"/>
+      <c r="Q139" s="8"/>
+      <c r="R139" s="8"/>
+      <c r="S139" s="8"/>
+      <c r="T139" s="36"/>
+      <c r="U139" s="36"/>
+      <c r="V139" s="8"/>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A140" s="15"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="46"/>
+      <c r="G140" s="23"/>
+      <c r="H140" s="38"/>
+      <c r="I140" s="31"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="8"/>
+      <c r="M140" s="8"/>
+      <c r="N140" s="8"/>
+      <c r="O140" s="8"/>
+      <c r="P140" s="8"/>
+      <c r="Q140" s="8"/>
+      <c r="R140" s="8"/>
+      <c r="S140" s="8"/>
+      <c r="T140" s="36"/>
+      <c r="U140" s="36"/>
+      <c r="V140" s="8"/>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A141" s="15"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="46"/>
+      <c r="G141" s="23"/>
+      <c r="H141" s="38"/>
+      <c r="I141" s="31"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="8"/>
+      <c r="M141" s="8"/>
+      <c r="N141" s="8"/>
+      <c r="O141" s="8"/>
+      <c r="P141" s="8"/>
+      <c r="Q141" s="8"/>
+      <c r="R141" s="8"/>
+      <c r="S141" s="8"/>
+      <c r="T141" s="36"/>
+      <c r="U141" s="36"/>
+      <c r="V141" s="8"/>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A142" s="15"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="23"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="46"/>
+      <c r="G142" s="23"/>
+      <c r="H142" s="38"/>
+      <c r="I142" s="31"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="8"/>
+      <c r="L142" s="8"/>
+      <c r="M142" s="8"/>
+      <c r="N142" s="8"/>
+      <c r="O142" s="8"/>
+      <c r="P142" s="8"/>
+      <c r="Q142" s="8"/>
+      <c r="R142" s="8"/>
+      <c r="S142" s="8"/>
+      <c r="T142" s="36"/>
+      <c r="U142" s="36"/>
+      <c r="V142" s="8"/>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A143" s="15"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="23"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="46"/>
+      <c r="G143" s="23"/>
+      <c r="H143" s="38"/>
+      <c r="I143" s="31"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="8"/>
+      <c r="M143" s="8"/>
+      <c r="N143" s="8"/>
+      <c r="O143" s="8"/>
+      <c r="P143" s="8"/>
+      <c r="Q143" s="8"/>
+      <c r="R143" s="8"/>
+      <c r="S143" s="8"/>
+      <c r="T143" s="36"/>
+      <c r="U143" s="36"/>
+      <c r="V143" s="8"/>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A144" s="15"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="46"/>
+      <c r="G144" s="23"/>
+      <c r="H144" s="38"/>
+      <c r="I144" s="31"/>
+      <c r="J144" s="8"/>
+      <c r="K144" s="8"/>
+      <c r="L144" s="8"/>
+      <c r="M144" s="8"/>
+      <c r="N144" s="8"/>
+      <c r="O144" s="8"/>
+      <c r="P144" s="8"/>
+      <c r="Q144" s="8"/>
+      <c r="R144" s="8"/>
+      <c r="S144" s="8"/>
+      <c r="T144" s="36"/>
+      <c r="U144" s="36"/>
+      <c r="V144" s="8"/>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A145" s="15"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="23"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="46"/>
+      <c r="G145" s="23"/>
+      <c r="H145" s="38"/>
+      <c r="I145" s="31"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="8"/>
+      <c r="M145" s="8"/>
+      <c r="N145" s="8"/>
+      <c r="O145" s="8"/>
+      <c r="P145" s="8"/>
+      <c r="Q145" s="8"/>
+      <c r="R145" s="8"/>
+      <c r="S145" s="8"/>
+      <c r="T145" s="36"/>
+      <c r="U145" s="36"/>
+      <c r="V145" s="8"/>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A146" s="15"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="46"/>
+      <c r="G146" s="23"/>
+      <c r="H146" s="38"/>
+      <c r="I146" s="31"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="8"/>
+      <c r="N146" s="8"/>
+      <c r="O146" s="8"/>
+      <c r="P146" s="8"/>
+      <c r="Q146" s="8"/>
+      <c r="R146" s="8"/>
+      <c r="S146" s="8"/>
+      <c r="T146" s="36"/>
+      <c r="U146" s="36"/>
+      <c r="V146" s="8"/>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A147" s="15"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="46"/>
+      <c r="G147" s="23"/>
+      <c r="H147" s="38"/>
+      <c r="I147" s="31"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="8"/>
+      <c r="N147" s="8"/>
+      <c r="O147" s="8"/>
+      <c r="P147" s="8"/>
+      <c r="Q147" s="8"/>
+      <c r="R147" s="8"/>
+      <c r="S147" s="8"/>
+      <c r="T147" s="36"/>
+      <c r="U147" s="36"/>
+      <c r="V147" s="8"/>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A148" s="15"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="46"/>
+      <c r="G148" s="23"/>
+      <c r="H148" s="38"/>
+      <c r="I148" s="31"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
+      <c r="N148" s="8"/>
+      <c r="O148" s="8"/>
+      <c r="P148" s="8"/>
+      <c r="Q148" s="8"/>
+      <c r="R148" s="8"/>
+      <c r="S148" s="8"/>
+      <c r="T148" s="36"/>
+      <c r="U148" s="36"/>
+      <c r="V148" s="8"/>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A149" s="15"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="46"/>
+      <c r="G149" s="23"/>
+      <c r="H149" s="38"/>
+      <c r="I149" s="31"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="8"/>
+      <c r="N149" s="8"/>
+      <c r="O149" s="8"/>
+      <c r="P149" s="8"/>
+      <c r="Q149" s="8"/>
+      <c r="R149" s="8"/>
+      <c r="S149" s="8"/>
+      <c r="T149" s="36"/>
+      <c r="U149" s="36"/>
+      <c r="V149" s="8"/>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A150" s="15"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="46"/>
+      <c r="G150" s="23"/>
+      <c r="H150" s="38"/>
+      <c r="I150" s="31"/>
+      <c r="J150" s="8"/>
+      <c r="K150" s="8"/>
+      <c r="L150" s="8"/>
+      <c r="M150" s="8"/>
+      <c r="N150" s="8"/>
+      <c r="O150" s="8"/>
+      <c r="P150" s="8"/>
+      <c r="Q150" s="8"/>
+      <c r="R150" s="8"/>
+      <c r="S150" s="8"/>
+      <c r="T150" s="36"/>
+      <c r="U150" s="36"/>
+      <c r="V150" s="8"/>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A151" s="15"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="23"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="46"/>
+      <c r="G151" s="23"/>
+      <c r="H151" s="38"/>
+      <c r="I151" s="31"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
+      <c r="L151" s="8"/>
+      <c r="M151" s="8"/>
+      <c r="N151" s="8"/>
+      <c r="O151" s="8"/>
+      <c r="P151" s="8"/>
+      <c r="Q151" s="8"/>
+      <c r="R151" s="8"/>
+      <c r="S151" s="8"/>
+      <c r="T151" s="36"/>
+      <c r="U151" s="36"/>
+      <c r="V151" s="8"/>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A152" s="15"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="23"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="46"/>
+      <c r="G152" s="23"/>
+      <c r="H152" s="38"/>
+      <c r="I152" s="31"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="8"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="8"/>
+      <c r="N152" s="8"/>
+      <c r="O152" s="8"/>
+      <c r="P152" s="8"/>
+      <c r="Q152" s="8"/>
+      <c r="R152" s="8"/>
+      <c r="S152" s="8"/>
+      <c r="T152" s="36"/>
+      <c r="U152" s="36"/>
+      <c r="V152" s="8"/>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A153" s="15"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="46"/>
+      <c r="G153" s="23"/>
+      <c r="H153" s="38"/>
+      <c r="I153" s="31"/>
+      <c r="J153" s="8"/>
+      <c r="K153" s="8"/>
+      <c r="L153" s="8"/>
+      <c r="M153" s="8"/>
+      <c r="N153" s="8"/>
+      <c r="O153" s="8"/>
+      <c r="P153" s="8"/>
+      <c r="Q153" s="8"/>
+      <c r="R153" s="8"/>
+      <c r="S153" s="8"/>
+      <c r="T153" s="36"/>
+      <c r="U153" s="36"/>
+      <c r="V153" s="8"/>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A154" s="15"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="46"/>
+      <c r="G154" s="23"/>
+      <c r="H154" s="38"/>
+      <c r="I154" s="31"/>
+      <c r="J154" s="8"/>
+      <c r="K154" s="8"/>
+      <c r="L154" s="8"/>
+      <c r="M154" s="8"/>
+      <c r="N154" s="8"/>
+      <c r="O154" s="8"/>
+      <c r="P154" s="8"/>
+      <c r="Q154" s="8"/>
+      <c r="R154" s="8"/>
+      <c r="S154" s="8"/>
+      <c r="T154" s="36"/>
+      <c r="U154" s="36"/>
+      <c r="V154" s="8"/>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A155" s="15"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="46"/>
+      <c r="G155" s="23"/>
+      <c r="H155" s="38"/>
+      <c r="I155" s="31"/>
+      <c r="J155" s="8"/>
+      <c r="K155" s="8"/>
+      <c r="L155" s="8"/>
+      <c r="M155" s="8"/>
+      <c r="N155" s="8"/>
+      <c r="O155" s="8"/>
+      <c r="P155" s="8"/>
+      <c r="Q155" s="8"/>
+      <c r="R155" s="8"/>
+      <c r="S155" s="8"/>
+      <c r="T155" s="36"/>
+      <c r="U155" s="36"/>
+      <c r="V155" s="8"/>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A156" s="15"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="46"/>
+      <c r="G156" s="23"/>
+      <c r="H156" s="38"/>
+      <c r="I156" s="31"/>
+      <c r="J156" s="8"/>
+      <c r="K156" s="8"/>
+      <c r="L156" s="8"/>
+      <c r="M156" s="8"/>
+      <c r="N156" s="8"/>
+      <c r="O156" s="8"/>
+      <c r="P156" s="8"/>
+      <c r="Q156" s="8"/>
+      <c r="R156" s="8"/>
+      <c r="S156" s="8"/>
+      <c r="T156" s="36"/>
+      <c r="U156" s="36"/>
+      <c r="V156" s="8"/>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A157" s="15"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="16"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="46"/>
+      <c r="G157" s="23"/>
+      <c r="H157" s="38"/>
+      <c r="I157" s="31"/>
+      <c r="J157" s="8"/>
+      <c r="K157" s="8"/>
+      <c r="L157" s="8"/>
+      <c r="M157" s="8"/>
+      <c r="N157" s="8"/>
+      <c r="O157" s="8"/>
+      <c r="P157" s="8"/>
+      <c r="Q157" s="8"/>
+      <c r="R157" s="8"/>
+      <c r="S157" s="8"/>
+      <c r="T157" s="36"/>
+      <c r="U157" s="36"/>
+      <c r="V157" s="8"/>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A158" s="15"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="23"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="46"/>
+      <c r="G158" s="23"/>
+      <c r="H158" s="38"/>
+      <c r="I158" s="31"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="8"/>
+      <c r="L158" s="8"/>
+      <c r="M158" s="8"/>
+      <c r="N158" s="8"/>
+      <c r="O158" s="8"/>
+      <c r="P158" s="8"/>
+      <c r="Q158" s="8"/>
+      <c r="R158" s="8"/>
+      <c r="S158" s="8"/>
+      <c r="T158" s="36"/>
+      <c r="U158" s="36"/>
+      <c r="V158" s="8"/>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A159" s="15"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="23"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="46"/>
+      <c r="G159" s="23"/>
+      <c r="H159" s="38"/>
+      <c r="I159" s="31"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="8"/>
+      <c r="L159" s="8"/>
+      <c r="M159" s="8"/>
+      <c r="N159" s="8"/>
+      <c r="O159" s="8"/>
+      <c r="P159" s="8"/>
+      <c r="Q159" s="8"/>
+      <c r="R159" s="8"/>
+      <c r="S159" s="8"/>
+      <c r="T159" s="36"/>
+      <c r="U159" s="36"/>
+      <c r="V159" s="8"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0"/>
-  <mergeCells count="3">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="A6:P6"/>
+  <mergeCells count="2">
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:M7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="C10:F10">
-    <cfRule type="expression" dxfId="85" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="C11:F11">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="84" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="C13:F33">
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G32">
-    <cfRule type="expression" dxfId="83" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:F32">
-    <cfRule type="expression" dxfId="82" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="G13:G159">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:F54">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55:F75">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76:F96">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97:F117">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118:F138">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C139:F159">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="I10 I12:I32"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="I11:J11 I13:J159" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="www.federation.org"/>
-    <hyperlink ref="A4" r:id="rId2" display="records@federation.org"/>
+    <hyperlink ref="A4" r:id="rId1" display="records@federation.org" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="www.federation.org" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup scale="61" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -4339,7 +7444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4350,174 +7455,172 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="5" width="16.42578125" style="19" customWidth="1"/>
+    <col min="4" max="5" width="16.42578125" style="14" customWidth="1"/>
     <col min="6" max="21" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-    </row>
-    <row r="2" spans="1:22" s="47" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+    </row>
+    <row r="2" spans="1:22" s="39" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="O2" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="R2" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="47" t="s">
+      <c r="S2" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="T2" s="47" t="s">
+      <c r="T2" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="47" t="s">
+      <c r="U2" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="V2" s="47" t="s">
+      <c r="V2" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="D3"/>
+      <c r="E3" s="1"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="49" t="s">
+      <c r="P4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="49" t="s">
+      <c r="Q4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="49" t="s">
+      <c r="R4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="49" t="s">
+      <c r="S4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="T4" s="49" t="s">
+      <c r="T4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="49" t="s">
+      <c r="U4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V4" s="49" t="s">
+      <c r="V4" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4529,7 +7632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4541,7 +7644,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="62" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="50" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="5" width="26.7109375" customWidth="1"/>
@@ -4552,507 +7655,507 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="50" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="64"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="71"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="78"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="58"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="71"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="55"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="77"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="78"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="58"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="78"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="58"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="78"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="58"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="78"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="58"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="78"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="58"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="78"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="58"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="78"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="58"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="78"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="58"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="78"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="58"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="77"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="78"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="58"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="77"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="78"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="58"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="77"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="78"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="58"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="77"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="78"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="58"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="77"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="78"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="58"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="77"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="78"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="58"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="77"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="78"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="58"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="81"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="61"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23"/>
@@ -5112,7 +8215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5123,489 +8226,486 @@
   <cols>
     <col min="1" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="5" width="23.140625" style="61" customWidth="1"/>
+    <col min="4" max="5" width="23.140625" style="48" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" customWidth="1"/>
     <col min="8" max="8" width="25.42578125" customWidth="1"/>
-    <col min="9" max="10" width="16.42578125" style="19" customWidth="1"/>
+    <col min="9" max="10" width="16.42578125" style="14" customWidth="1"/>
     <col min="11" max="26" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="39" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="14"/>
       <c r="I3"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="14"/>
       <c r="I4"/>
       <c r="J4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="14"/>
       <c r="I5"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="14"/>
       <c r="I6"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="14"/>
       <c r="I7"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="14"/>
       <c r="I8"/>
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="14"/>
       <c r="I9"/>
       <c r="J9"/>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="14"/>
       <c r="I10"/>
       <c r="J10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="14"/>
       <c r="I11"/>
       <c r="J11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="14"/>
       <c r="I12"/>
       <c r="J12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="14"/>
       <c r="I13"/>
       <c r="J13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="19"/>
+      <c r="H14" s="14"/>
       <c r="I14"/>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="14"/>
       <c r="I15"/>
       <c r="J15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="14"/>
       <c r="I16"/>
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="14"/>
       <c r="I17"/>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="14"/>
       <c r="I18"/>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="19"/>
+      <c r="H19" s="14"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>

--- a/owlcms/src/main/resources/templates/registration/SBDE.xlsx
+++ b/owlcms/src/main/resources/templates/registration/SBDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\registration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5658871-65BB-4DEB-8BF4-F7B10A6093B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD56DCD-43E8-4575-803B-746DAE481837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23475" yWindow="1770" windowWidth="20715" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Athletes" sheetId="1" r:id="rId1"/>
@@ -222,9 +222,6 @@
     <t>${l.club}</t>
   </si>
   <si>
-    <t>${l.formattedBirth}</t>
-  </si>
-  <si>
     <t>${l.snatch1Declaration}</t>
   </si>
   <si>
@@ -493,6 +490,9 @@
   </si>
   <si>
     <t>${l.subCategory}</t>
+  </si>
+  <si>
+    <t>${l.isoBirth}</t>
   </si>
 </sst>
 </file>
@@ -1384,17 +1384,17 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="36">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1434,87 +1434,7 @@
     <cellStyle name="Title" xfId="34" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="35" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="92">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="89">
     <dxf>
       <font>
         <b/>
@@ -1783,6 +1703,62 @@
           <color theme="4" tint="0.499984740745262"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2154,7 +2130,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Jean-François Lamy" refreshedDate="45333.666685879631" createdVersion="8" refreshedVersion="8" recordCount="20" xr:uid="{00000000-000A-0000-FFFF-FFFF09000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Jean-François Lamy" refreshedDate="45393.588059027781" createdVersion="8" refreshedVersion="8" recordCount="20" xr:uid="{00000000-000A-0000-FFFF-FFFF09000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G600" sheet="Group Data"/>
   </cacheSource>
@@ -2655,13 +2631,13 @@
     <i/>
   </colItems>
   <formats count="41">
-    <format dxfId="91">
+    <format dxfId="88">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="87">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2670,7 +2646,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2679,7 +2655,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2688,7 +2664,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2697,7 +2673,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2706,7 +2682,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2715,7 +2691,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2724,7 +2700,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2733,7 +2709,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2742,7 +2718,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2751,7 +2727,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2760,7 +2736,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2769,7 +2745,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2778,7 +2754,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2787,7 +2763,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2796,7 +2772,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2805,7 +2781,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2814,7 +2790,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2823,7 +2799,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2832,7 +2808,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2841,7 +2817,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2850,7 +2826,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2859,7 +2835,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2868,7 +2844,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2877,7 +2853,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2886,7 +2862,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2895,7 +2871,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2904,7 +2880,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2913,7 +2889,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2922,7 +2898,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2931,7 +2907,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2940,7 +2916,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2949,7 +2925,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -2958,7 +2934,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" countASubtotal="1">
@@ -2967,19 +2943,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="51">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" offset="A1" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="50">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" offset="A1" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="49">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" offset="A1" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="48">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3287,7 +3263,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3311,7 +3287,7 @@
   <sheetData>
     <row r="1" spans="1:242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="24"/>
@@ -3319,7 +3295,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -3329,9 +3305,9 @@
         <v>15</v>
       </c>
       <c r="M1" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="73"/>
+        <v>41</v>
+      </c>
+      <c r="N1" s="70"/>
       <c r="P1" s="22"/>
       <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
@@ -3339,14 +3315,14 @@
     </row>
     <row r="2" spans="1:242" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="19"/>
       <c r="E2" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -3356,14 +3332,14 @@
     </row>
     <row r="3" spans="1:242" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="21"/>
       <c r="E3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -3374,14 +3350,14 @@
     </row>
     <row r="4" spans="1:242" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="20"/>
       <c r="E4" s="26" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -3392,40 +3368,40 @@
     </row>
     <row r="5" spans="1:242" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:242" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
+      <c r="A6" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
       <c r="N6" s="69"/>
       <c r="O6" s="69"/>
     </row>
     <row r="7" spans="1:242" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
       <c r="N7" s="69"/>
       <c r="O7" s="69"/>
     </row>
@@ -3475,7 +3451,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>4</v>
@@ -3484,25 +3460,25 @@
         <v>3</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P9" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="R9" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="S9" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>1</v>
@@ -3511,7 +3487,7 @@
         <v>2</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:242" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3775,55 +3751,55 @@
         <v>27</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I11" s="41" t="s">
         <v>26</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K11" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N11" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="O11" s="45" t="s">
-        <v>86</v>
-      </c>
       <c r="P11" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="R11" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="R11" s="45" t="s">
+      <c r="S11" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="S11" s="45" t="s">
+      <c r="T11" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="V11" s="45" t="s">
         <v>114</v>
-      </c>
-      <c r="T11" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="U11" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="V11" s="45" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:242" x14ac:dyDescent="0.25">
@@ -7381,52 +7357,37 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C11:F11">
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="10" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:F33">
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="8" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:F54">
+    <cfRule type="expression" dxfId="45" priority="6" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55:F75">
+    <cfRule type="expression" dxfId="44" priority="5" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76:F159">
+    <cfRule type="expression" dxfId="43" priority="1" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="9" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G159">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:F54">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55:F75">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C76:F96">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97:F117">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C118:F138">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C139:F159">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="7" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7460,85 +7421,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:22" s="39" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="39" t="s">
+      <c r="M2" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" s="39" t="s">
+      <c r="O2" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="Q2" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" s="39" t="s">
+      <c r="R2" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="S2" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="T2" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="U2" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="39" t="s">
-        <v>72</v>
-      </c>
       <c r="V2" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3"/>
       <c r="E3" s="1"/>
@@ -7547,70 +7508,70 @@
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="40" t="s">
+      <c r="E4" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="F4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -7656,11 +7617,11 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="71"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
@@ -7675,22 +7636,22 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="52" t="s">
+      <c r="E4" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="52" t="s">
-        <v>97</v>
-      </c>
       <c r="F4" s="52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" s="57"/>
       <c r="H4" s="56"/>
@@ -7701,22 +7662,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="53" t="s">
-        <v>45</v>
-      </c>
       <c r="D5" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="53" t="s">
-        <v>104</v>
-      </c>
       <c r="F5" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="53"/>
       <c r="H5" s="54"/>
@@ -7727,22 +7688,22 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="53" t="s">
-        <v>45</v>
-      </c>
       <c r="D6" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="53" t="s">
-        <v>104</v>
-      </c>
       <c r="F6" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" s="57"/>
       <c r="H6" s="56"/>
@@ -7753,22 +7714,22 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="53" t="s">
-        <v>45</v>
-      </c>
       <c r="D7" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="53" t="s">
-        <v>104</v>
-      </c>
       <c r="F7" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="57"/>
       <c r="H7" s="56"/>
@@ -7779,22 +7740,22 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="53" t="s">
-        <v>45</v>
-      </c>
       <c r="D8" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="53" t="s">
-        <v>104</v>
-      </c>
       <c r="F8" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="57"/>
       <c r="H8" s="56"/>
@@ -7805,22 +7766,22 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="53" t="s">
-        <v>45</v>
-      </c>
       <c r="D9" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="53" t="s">
-        <v>104</v>
-      </c>
       <c r="F9" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" s="57"/>
       <c r="H9" s="56"/>
@@ -7831,22 +7792,22 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="53" t="s">
-        <v>45</v>
-      </c>
       <c r="D10" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="53" t="s">
-        <v>104</v>
-      </c>
       <c r="F10" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="57"/>
       <c r="H10" s="56"/>
@@ -7857,22 +7818,22 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="53" t="s">
-        <v>45</v>
-      </c>
       <c r="D11" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="53" t="s">
-        <v>104</v>
-      </c>
       <c r="F11" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="56"/>
@@ -7883,22 +7844,22 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="53" t="s">
-        <v>45</v>
-      </c>
       <c r="D12" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="53" t="s">
-        <v>104</v>
-      </c>
       <c r="F12" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G12" s="57"/>
       <c r="H12" s="56"/>
@@ -7909,22 +7870,22 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="53" t="s">
-        <v>45</v>
-      </c>
       <c r="D13" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="53" t="s">
-        <v>104</v>
-      </c>
       <c r="F13" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="57"/>
       <c r="H13" s="56"/>
@@ -7935,22 +7896,22 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="53" t="s">
-        <v>45</v>
-      </c>
       <c r="D14" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="53" t="s">
-        <v>104</v>
-      </c>
       <c r="F14" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="57"/>
       <c r="H14" s="56"/>
@@ -7961,22 +7922,22 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="53" t="s">
-        <v>45</v>
-      </c>
       <c r="D15" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="53" t="s">
-        <v>104</v>
-      </c>
       <c r="F15" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="57"/>
       <c r="H15" s="56"/>
@@ -7987,22 +7948,22 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="53" t="s">
-        <v>45</v>
-      </c>
       <c r="D16" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="53" t="s">
-        <v>104</v>
-      </c>
       <c r="F16" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" s="57"/>
       <c r="H16" s="56"/>
@@ -8013,22 +7974,22 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="53" t="s">
-        <v>45</v>
-      </c>
       <c r="D17" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="53" t="s">
-        <v>104</v>
-      </c>
       <c r="F17" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="57"/>
       <c r="H17" s="56"/>
@@ -8039,22 +8000,22 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="53" t="s">
-        <v>45</v>
-      </c>
       <c r="D18" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="53" t="s">
-        <v>104</v>
-      </c>
       <c r="F18" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" s="57"/>
       <c r="H18" s="56"/>
@@ -8065,22 +8026,22 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="53" t="s">
-        <v>45</v>
-      </c>
       <c r="D19" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="53" t="s">
-        <v>104</v>
-      </c>
       <c r="F19" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="57"/>
       <c r="H19" s="56"/>
@@ -8091,22 +8052,22 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="53" t="s">
-        <v>45</v>
-      </c>
       <c r="D20" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="53" t="s">
-        <v>104</v>
-      </c>
       <c r="F20" s="53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="57"/>
       <c r="H20" s="56"/>
@@ -8117,22 +8078,22 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="53" t="s">
-        <v>45</v>
-      </c>
       <c r="D21" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="53" t="s">
-        <v>104</v>
-      </c>
       <c r="F21" s="53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" s="57"/>
       <c r="H21" s="56"/>
@@ -8143,7 +8104,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
@@ -8236,54 +8197,54 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>101</v>
-      </c>
       <c r="D1" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="47" t="s">
-        <v>97</v>
-      </c>
       <c r="F1" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="39" t="s">
         <v>94</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="49" t="s">
-        <v>104</v>
-      </c>
       <c r="F3" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3"/>
@@ -8291,25 +8252,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="49" t="s">
-        <v>104</v>
-      </c>
       <c r="F4" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4"/>
@@ -8317,25 +8278,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>104</v>
-      </c>
       <c r="F5" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5"/>
@@ -8343,25 +8304,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="49" t="s">
-        <v>104</v>
-      </c>
       <c r="F6" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6"/>
@@ -8369,25 +8330,25 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="49" t="s">
-        <v>104</v>
-      </c>
       <c r="F7" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7"/>
@@ -8395,25 +8356,25 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="49" t="s">
-        <v>104</v>
-      </c>
       <c r="F8" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8"/>
@@ -8421,25 +8382,25 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="49" t="s">
-        <v>104</v>
-      </c>
       <c r="F9" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9"/>
@@ -8447,25 +8408,25 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="39" t="s">
+      <c r="G10" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10"/>
@@ -8473,25 +8434,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="49" t="s">
-        <v>104</v>
-      </c>
       <c r="F11" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11"/>
@@ -8499,25 +8460,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="49" t="s">
-        <v>104</v>
-      </c>
       <c r="F12" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12"/>
@@ -8525,25 +8486,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="49" t="s">
-        <v>104</v>
-      </c>
       <c r="F13" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13"/>
@@ -8551,25 +8512,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="49" t="s">
-        <v>104</v>
-      </c>
       <c r="F14" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14"/>
@@ -8577,25 +8538,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="49" t="s">
-        <v>104</v>
-      </c>
       <c r="F15" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15"/>
@@ -8603,25 +8564,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="49" t="s">
-        <v>104</v>
-      </c>
       <c r="F16" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16"/>
@@ -8629,25 +8590,25 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="49" t="s">
-        <v>104</v>
-      </c>
       <c r="F17" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17"/>
@@ -8655,25 +8616,25 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="49" t="s">
-        <v>104</v>
-      </c>
       <c r="F18" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18"/>
@@ -8681,25 +8642,25 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="49" t="s">
-        <v>104</v>
-      </c>
       <c r="F19" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H19" s="14"/>
       <c r="J19"/>
@@ -8711,7 +8672,7 @@
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/owlcms/src/main/resources/templates/registration/SBDE.xlsx
+++ b/owlcms/src/main/resources/templates/registration/SBDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\registration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\usaw-owlcms\local\templates\registration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD56DCD-43E8-4575-803B-746DAE481837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFB7A2F-AD24-4E50-B266-94970C65111B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23475" yWindow="1770" windowWidth="20715" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Athletes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_2Excel_BuiltIn__FilterDatabase_2_1">#REF!</definedName>
     <definedName name="_3Excel_BuiltIn_Criteria_1_1">Athletes!A1:CR106</definedName>
     <definedName name="_4Excel_BuiltIn_Criteria_2_1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Athletes!$M$3969:$AC$10677</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Athletes!$M$3967:$AC$10675</definedName>
     <definedName name="AFF." localSheetId="2">[1]Athletes!#REF!</definedName>
     <definedName name="AFF.">Athletes!#REF!</definedName>
     <definedName name="AFF._2">#REF!</definedName>
@@ -47,7 +47,7 @@
     <definedName name="CLUB">Athletes!#REF!</definedName>
     <definedName name="CLUB_2">#REF!</definedName>
     <definedName name="Collet">#REF!</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Athletes!$B$2:$AC$3969</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Athletes!$B$2:$AC$3967</definedName>
     <definedName name="demandé" localSheetId="2">[1]Athletes!#REF!</definedName>
     <definedName name="demandé">Athletes!#REF!</definedName>
     <definedName name="demandé_2">#REF!</definedName>
@@ -121,7 +121,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId6"/>
+    <pivotCache cacheId="19" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -135,8 +135,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jean-François Lamy</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4867F2BB-D8CF-45FA-A2ED-90FE66664B9F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jx:area(lastCell="V10")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{8F154969-2B4D-4C1D-B047-ECEE0569B3FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jean-François Lamy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="athletes" var="l" lastCell="V10")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="118">
   <si>
     <t>M/F</t>
   </si>
@@ -199,9 +257,6 @@
   </si>
   <si>
     <t>&lt;/jx:forEach&gt;</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${athletes}" var="l" varStatus="index"&gt;</t>
   </si>
   <si>
     <t>${l.membership}</t>
@@ -503,7 +558,7 @@
     <numFmt numFmtId="164" formatCode="0.0;;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,6 +747,19 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="30">
@@ -1207,7 +1275,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1304,13 +1372,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2130,7 +2191,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Jean-François Lamy" refreshedDate="45393.588059027781" createdVersion="8" refreshedVersion="8" recordCount="20" xr:uid="{00000000-000A-0000-FFFF-FFFF09000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Jean-François Lamy" refreshedDate="45527.713239699071" createdVersion="8" refreshedVersion="8" recordCount="20" xr:uid="{00000000-000A-0000-FFFF-FFFF09000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G600" sheet="Group Data"/>
   </cacheSource>
@@ -2403,7 +2464,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable2" cacheId="9" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable2" cacheId="19" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:L22" firstHeaderRow="2" firstDataRow="2" firstDataCol="6"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0">
@@ -3254,16 +3315,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IH159"/>
+  <dimension ref="A1:V157"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3285,9 +3346,9 @@
     <col min="22" max="22" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="24"/>
@@ -3295,7 +3356,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -3304,25 +3365,25 @@
       <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="70"/>
+      <c r="M1" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="67"/>
       <c r="P1" s="22"/>
       <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
       <c r="S1" s="22"/>
     </row>
-    <row r="2" spans="1:242" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="19"/>
       <c r="E2" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -3330,16 +3391,16 @@
       <c r="J2" s="13"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:242" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="21"/>
       <c r="E3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -3348,16 +3409,16 @@
       <c r="K3" s="11"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:242" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="20"/>
       <c r="E4" s="26" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -3366,63 +3427,63 @@
       <c r="K4" s="11"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:242" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:242" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-    </row>
-    <row r="7" spans="1:242" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="71" t="s">
+    <row r="5" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:22" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+    </row>
+    <row r="7" spans="1:22" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-    </row>
-    <row r="8" spans="1:242" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-    </row>
-    <row r="9" spans="1:242" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+    </row>
+    <row r="8" spans="1:22" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+    </row>
+    <row r="9" spans="1:22" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -3451,7 +3512,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>4</v>
@@ -3460,25 +3521,25 @@
         <v>3</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P9" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q9" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="R9" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="S9" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>1</v>
@@ -3487,349 +3548,134 @@
         <v>2</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:242" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="I10" s="2"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10" s="1"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
-      <c r="AQ10"/>
-      <c r="AR10"/>
-      <c r="AS10"/>
-      <c r="AT10"/>
-      <c r="AU10"/>
-      <c r="AV10"/>
-      <c r="AW10"/>
-      <c r="AX10"/>
-      <c r="AY10"/>
-      <c r="AZ10"/>
-      <c r="BA10"/>
-      <c r="BB10"/>
-      <c r="BC10"/>
-      <c r="BD10"/>
-      <c r="BE10"/>
-      <c r="BF10"/>
-      <c r="BG10"/>
-      <c r="BH10"/>
-      <c r="BI10"/>
-      <c r="BJ10"/>
-      <c r="BK10"/>
-      <c r="BL10"/>
-      <c r="BM10"/>
-      <c r="BN10"/>
-      <c r="BO10"/>
-      <c r="BP10"/>
-      <c r="BQ10"/>
-      <c r="BR10"/>
-      <c r="BS10"/>
-      <c r="BT10"/>
-      <c r="BU10"/>
-      <c r="BV10"/>
-      <c r="BW10"/>
-      <c r="BX10"/>
-      <c r="BY10"/>
-      <c r="BZ10"/>
-      <c r="CA10"/>
-      <c r="CB10"/>
-      <c r="CC10"/>
-      <c r="CD10"/>
-      <c r="CE10"/>
-      <c r="CF10"/>
-      <c r="CG10"/>
-      <c r="CH10"/>
-      <c r="CI10"/>
-      <c r="CJ10"/>
-      <c r="CK10"/>
-      <c r="CL10"/>
-      <c r="CM10"/>
-      <c r="CN10"/>
-      <c r="CO10"/>
-      <c r="CP10"/>
-      <c r="CQ10"/>
-      <c r="CR10"/>
-      <c r="CS10"/>
-      <c r="CT10"/>
-      <c r="CU10"/>
-      <c r="CV10"/>
-      <c r="CW10"/>
-      <c r="CX10"/>
-      <c r="CY10"/>
-      <c r="CZ10"/>
-      <c r="DA10"/>
-      <c r="DB10"/>
-      <c r="DC10"/>
-      <c r="DD10"/>
-      <c r="DE10"/>
-      <c r="DF10"/>
-      <c r="DG10"/>
-      <c r="DH10"/>
-      <c r="DI10"/>
-      <c r="DJ10"/>
-      <c r="DK10"/>
-      <c r="DL10"/>
-      <c r="DM10"/>
-      <c r="DN10"/>
-      <c r="DO10"/>
-      <c r="DP10"/>
-      <c r="DQ10"/>
-      <c r="DR10"/>
-      <c r="DS10"/>
-      <c r="DT10"/>
-      <c r="DU10"/>
-      <c r="DV10"/>
-      <c r="DW10"/>
-      <c r="DX10"/>
-      <c r="DY10"/>
-      <c r="DZ10"/>
-      <c r="EA10"/>
-      <c r="EB10"/>
-      <c r="EC10"/>
-      <c r="ED10"/>
-      <c r="EE10"/>
-      <c r="EF10"/>
-      <c r="EG10"/>
-      <c r="EH10"/>
-      <c r="EI10"/>
-      <c r="EJ10"/>
-      <c r="EK10"/>
-      <c r="EL10"/>
-      <c r="EM10"/>
-      <c r="EN10"/>
-      <c r="EO10"/>
-      <c r="EP10"/>
-      <c r="EQ10"/>
-      <c r="ER10"/>
-      <c r="ES10"/>
-      <c r="ET10"/>
-      <c r="EU10"/>
-      <c r="EV10"/>
-      <c r="EW10"/>
-      <c r="EX10"/>
-      <c r="EY10"/>
-      <c r="EZ10"/>
-      <c r="FA10"/>
-      <c r="FB10"/>
-      <c r="FC10"/>
-      <c r="FD10"/>
-      <c r="FE10"/>
-      <c r="FF10"/>
-      <c r="FG10"/>
-      <c r="FH10"/>
-      <c r="FI10"/>
-      <c r="FJ10"/>
-      <c r="FK10"/>
-      <c r="FL10"/>
-      <c r="FM10"/>
-      <c r="FN10"/>
-      <c r="FO10"/>
-      <c r="FP10"/>
-      <c r="FQ10"/>
-      <c r="FR10"/>
-      <c r="FS10"/>
-      <c r="FT10"/>
-      <c r="FU10"/>
-      <c r="FV10"/>
-      <c r="FW10"/>
-      <c r="FX10"/>
-      <c r="FY10"/>
-      <c r="FZ10"/>
-      <c r="GA10"/>
-      <c r="GB10"/>
-      <c r="GC10"/>
-      <c r="GD10"/>
-      <c r="GE10"/>
-      <c r="GF10"/>
-      <c r="GG10"/>
-      <c r="GH10"/>
-      <c r="GI10"/>
-      <c r="GJ10"/>
-      <c r="GK10"/>
-      <c r="GL10"/>
-      <c r="GM10"/>
-      <c r="GN10"/>
-      <c r="GO10"/>
-      <c r="GP10"/>
-      <c r="GQ10"/>
-      <c r="GR10"/>
-      <c r="GS10"/>
-      <c r="GT10"/>
-      <c r="GU10"/>
-      <c r="GV10"/>
-      <c r="GW10"/>
-      <c r="GX10"/>
-      <c r="GY10"/>
-      <c r="GZ10"/>
-      <c r="HA10"/>
-      <c r="HB10"/>
-      <c r="HC10"/>
-      <c r="HD10"/>
-      <c r="HE10"/>
-      <c r="HF10"/>
-      <c r="HG10"/>
-      <c r="HH10"/>
-      <c r="HI10"/>
-      <c r="HJ10"/>
-      <c r="HK10"/>
-      <c r="HL10"/>
-      <c r="HM10"/>
-      <c r="HN10"/>
-      <c r="HO10"/>
-      <c r="HP10"/>
-      <c r="HQ10"/>
-      <c r="HR10"/>
-      <c r="HS10"/>
-      <c r="HT10"/>
-      <c r="HU10"/>
-      <c r="HV10"/>
-      <c r="HW10"/>
-      <c r="HX10"/>
-      <c r="HY10"/>
-      <c r="HZ10"/>
-      <c r="IA10"/>
-      <c r="IB10"/>
-      <c r="IC10" s="1"/>
-      <c r="ID10" s="1"/>
-      <c r="IE10" s="2"/>
-      <c r="IF10" s="1"/>
-      <c r="IG10" s="1"/>
-      <c r="IH10" s="1"/>
-    </row>
-    <row r="11" spans="1:242" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="B10" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="E10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="J10" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q10" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="R10" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="S10" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="T10" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="K11" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="N11" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="O11" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="P11" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q11" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="R11" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="S11" s="45" t="s">
+      <c r="U10" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="T11" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="U11" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="V11" s="45" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:242" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="33"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="35"/>
-      <c r="IC12" s="1"/>
-      <c r="ID12" s="1"/>
-      <c r="IE12" s="2"/>
-      <c r="IF12" s="1"/>
-      <c r="IG12" s="1"/>
-      <c r="IH12" s="1"/>
-    </row>
-    <row r="13" spans="1:242" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="8"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="8"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="23"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="46"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="38"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="31"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -3841,19 +3687,19 @@
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" spans="1:242" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="23"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="46"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="38"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="31"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -3865,19 +3711,19 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" spans="1:242" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="23"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="46"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="23"/>
-      <c r="H15" s="38"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="31"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -3889,19 +3735,19 @@
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="1:242" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="23"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="46"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="23"/>
-      <c r="H16" s="38"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="31"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -3913,8 +3759,8 @@
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
       <c r="V16" s="8"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -3923,9 +3769,9 @@
       <c r="C17" s="16"/>
       <c r="D17" s="23"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="46"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="23"/>
-      <c r="H17" s="38"/>
+      <c r="H17" s="35"/>
       <c r="I17" s="31"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -3937,8 +3783,8 @@
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
       <c r="V17" s="8"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -3947,9 +3793,9 @@
       <c r="C18" s="16"/>
       <c r="D18" s="23"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="46"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="23"/>
-      <c r="H18" s="38"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="31"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -3961,8 +3807,8 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
       <c r="V18" s="8"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -3971,9 +3817,9 @@
       <c r="C19" s="16"/>
       <c r="D19" s="23"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="46"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="23"/>
-      <c r="H19" s="38"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="31"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -3985,8 +3831,8 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
       <c r="V19" s="8"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -3995,9 +3841,9 @@
       <c r="C20" s="16"/>
       <c r="D20" s="23"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="46"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="23"/>
-      <c r="H20" s="38"/>
+      <c r="H20" s="35"/>
       <c r="I20" s="31"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -4009,8 +3855,8 @@
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
       <c r="V20" s="8"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -4019,9 +3865,9 @@
       <c r="C21" s="16"/>
       <c r="D21" s="23"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="46"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="23"/>
-      <c r="H21" s="38"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="31"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -4033,8 +3879,8 @@
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
       <c r="V21" s="8"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -4043,9 +3889,9 @@
       <c r="C22" s="16"/>
       <c r="D22" s="23"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="46"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="23"/>
-      <c r="H22" s="38"/>
+      <c r="H22" s="35"/>
       <c r="I22" s="31"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -4057,8 +3903,8 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
       <c r="V22" s="8"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -4067,9 +3913,9 @@
       <c r="C23" s="16"/>
       <c r="D23" s="23"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="46"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="23"/>
-      <c r="H23" s="38"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="31"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -4081,8 +3927,8 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
       <c r="V23" s="8"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -4091,9 +3937,9 @@
       <c r="C24" s="16"/>
       <c r="D24" s="23"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="46"/>
+      <c r="F24" s="43"/>
       <c r="G24" s="23"/>
-      <c r="H24" s="38"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="31"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -4105,8 +3951,8 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
       <c r="V24" s="8"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -4115,9 +3961,9 @@
       <c r="C25" s="16"/>
       <c r="D25" s="23"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="46"/>
+      <c r="F25" s="43"/>
       <c r="G25" s="23"/>
-      <c r="H25" s="38"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="31"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -4129,8 +3975,8 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
       <c r="V25" s="8"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -4139,9 +3985,9 @@
       <c r="C26" s="16"/>
       <c r="D26" s="23"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="46"/>
+      <c r="F26" s="43"/>
       <c r="G26" s="23"/>
-      <c r="H26" s="38"/>
+      <c r="H26" s="35"/>
       <c r="I26" s="31"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -4153,8 +3999,8 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
       <c r="V26" s="8"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -4163,9 +4009,9 @@
       <c r="C27" s="16"/>
       <c r="D27" s="23"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="46"/>
+      <c r="F27" s="43"/>
       <c r="G27" s="23"/>
-      <c r="H27" s="38"/>
+      <c r="H27" s="35"/>
       <c r="I27" s="31"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -4177,8 +4023,8 @@
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
       <c r="V27" s="8"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -4187,9 +4033,9 @@
       <c r="C28" s="16"/>
       <c r="D28" s="23"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="46"/>
+      <c r="F28" s="43"/>
       <c r="G28" s="23"/>
-      <c r="H28" s="38"/>
+      <c r="H28" s="35"/>
       <c r="I28" s="31"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -4201,8 +4047,8 @@
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
       <c r="V28" s="8"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -4211,9 +4057,9 @@
       <c r="C29" s="16"/>
       <c r="D29" s="23"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="46"/>
+      <c r="F29" s="43"/>
       <c r="G29" s="23"/>
-      <c r="H29" s="38"/>
+      <c r="H29" s="35"/>
       <c r="I29" s="31"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -4225,8 +4071,8 @@
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
       <c r="V29" s="8"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -4235,9 +4081,9 @@
       <c r="C30" s="16"/>
       <c r="D30" s="23"/>
       <c r="E30" s="17"/>
-      <c r="F30" s="46"/>
+      <c r="F30" s="43"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="38"/>
+      <c r="H30" s="35"/>
       <c r="I30" s="31"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -4249,8 +4095,8 @@
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
       <c r="V30" s="8"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -4259,9 +4105,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="23"/>
       <c r="E31" s="17"/>
-      <c r="F31" s="46"/>
+      <c r="F31" s="43"/>
       <c r="G31" s="23"/>
-      <c r="H31" s="38"/>
+      <c r="H31" s="35"/>
       <c r="I31" s="31"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -4273,8 +4119,8 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
       <c r="V31" s="8"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -4283,9 +4129,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="23"/>
       <c r="E32" s="17"/>
-      <c r="F32" s="46"/>
+      <c r="F32" s="43"/>
       <c r="G32" s="23"/>
-      <c r="H32" s="38"/>
+      <c r="H32" s="35"/>
       <c r="I32" s="31"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -4297,8 +4143,8 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
       <c r="V32" s="8"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -4307,9 +4153,9 @@
       <c r="C33" s="16"/>
       <c r="D33" s="23"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="46"/>
+      <c r="F33" s="43"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="38"/>
+      <c r="H33" s="35"/>
       <c r="I33" s="31"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -4321,8 +4167,8 @@
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
       <c r="V33" s="8"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -4331,9 +4177,9 @@
       <c r="C34" s="16"/>
       <c r="D34" s="23"/>
       <c r="E34" s="17"/>
-      <c r="F34" s="46"/>
+      <c r="F34" s="43"/>
       <c r="G34" s="23"/>
-      <c r="H34" s="38"/>
+      <c r="H34" s="35"/>
       <c r="I34" s="31"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -4345,8 +4191,8 @@
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
       <c r="V34" s="8"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -4355,9 +4201,9 @@
       <c r="C35" s="16"/>
       <c r="D35" s="23"/>
       <c r="E35" s="17"/>
-      <c r="F35" s="46"/>
+      <c r="F35" s="43"/>
       <c r="G35" s="23"/>
-      <c r="H35" s="38"/>
+      <c r="H35" s="35"/>
       <c r="I35" s="31"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -4369,8 +4215,8 @@
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
       <c r="V35" s="8"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -4379,9 +4225,9 @@
       <c r="C36" s="16"/>
       <c r="D36" s="23"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="46"/>
+      <c r="F36" s="43"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="38"/>
+      <c r="H36" s="35"/>
       <c r="I36" s="31"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -4393,8 +4239,8 @@
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
       <c r="V36" s="8"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -4403,9 +4249,9 @@
       <c r="C37" s="16"/>
       <c r="D37" s="23"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="46"/>
+      <c r="F37" s="43"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="38"/>
+      <c r="H37" s="35"/>
       <c r="I37" s="31"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
@@ -4417,8 +4263,8 @@
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
       <c r="V37" s="8"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -4427,9 +4273,9 @@
       <c r="C38" s="16"/>
       <c r="D38" s="23"/>
       <c r="E38" s="17"/>
-      <c r="F38" s="46"/>
+      <c r="F38" s="43"/>
       <c r="G38" s="23"/>
-      <c r="H38" s="38"/>
+      <c r="H38" s="35"/>
       <c r="I38" s="31"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -4441,8 +4287,8 @@
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
       <c r="V38" s="8"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -4451,9 +4297,9 @@
       <c r="C39" s="16"/>
       <c r="D39" s="23"/>
       <c r="E39" s="17"/>
-      <c r="F39" s="46"/>
+      <c r="F39" s="43"/>
       <c r="G39" s="23"/>
-      <c r="H39" s="38"/>
+      <c r="H39" s="35"/>
       <c r="I39" s="31"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
@@ -4465,8 +4311,8 @@
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
       <c r="V39" s="8"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -4475,9 +4321,9 @@
       <c r="C40" s="16"/>
       <c r="D40" s="23"/>
       <c r="E40" s="17"/>
-      <c r="F40" s="46"/>
+      <c r="F40" s="43"/>
       <c r="G40" s="23"/>
-      <c r="H40" s="38"/>
+      <c r="H40" s="35"/>
       <c r="I40" s="31"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -4489,8 +4335,8 @@
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
       <c r="V40" s="8"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
@@ -4499,9 +4345,9 @@
       <c r="C41" s="16"/>
       <c r="D41" s="23"/>
       <c r="E41" s="17"/>
-      <c r="F41" s="46"/>
+      <c r="F41" s="43"/>
       <c r="G41" s="23"/>
-      <c r="H41" s="38"/>
+      <c r="H41" s="35"/>
       <c r="I41" s="31"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -4513,8 +4359,8 @@
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
       <c r="V41" s="8"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -4523,9 +4369,9 @@
       <c r="C42" s="16"/>
       <c r="D42" s="23"/>
       <c r="E42" s="17"/>
-      <c r="F42" s="46"/>
+      <c r="F42" s="43"/>
       <c r="G42" s="23"/>
-      <c r="H42" s="38"/>
+      <c r="H42" s="35"/>
       <c r="I42" s="31"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -4537,8 +4383,8 @@
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
-      <c r="T42" s="36"/>
-      <c r="U42" s="36"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
       <c r="V42" s="8"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -4547,9 +4393,9 @@
       <c r="C43" s="16"/>
       <c r="D43" s="23"/>
       <c r="E43" s="17"/>
-      <c r="F43" s="46"/>
+      <c r="F43" s="43"/>
       <c r="G43" s="23"/>
-      <c r="H43" s="38"/>
+      <c r="H43" s="35"/>
       <c r="I43" s="31"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -4561,8 +4407,8 @@
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
-      <c r="T43" s="36"/>
-      <c r="U43" s="36"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
       <c r="V43" s="8"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -4571,9 +4417,9 @@
       <c r="C44" s="16"/>
       <c r="D44" s="23"/>
       <c r="E44" s="17"/>
-      <c r="F44" s="46"/>
+      <c r="F44" s="43"/>
       <c r="G44" s="23"/>
-      <c r="H44" s="38"/>
+      <c r="H44" s="35"/>
       <c r="I44" s="31"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -4585,8 +4431,8 @@
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="33"/>
       <c r="V44" s="8"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -4595,9 +4441,9 @@
       <c r="C45" s="16"/>
       <c r="D45" s="23"/>
       <c r="E45" s="17"/>
-      <c r="F45" s="46"/>
+      <c r="F45" s="43"/>
       <c r="G45" s="23"/>
-      <c r="H45" s="38"/>
+      <c r="H45" s="35"/>
       <c r="I45" s="31"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -4609,8 +4455,8 @@
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="36"/>
+      <c r="T45" s="33"/>
+      <c r="U45" s="33"/>
       <c r="V45" s="8"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -4619,9 +4465,9 @@
       <c r="C46" s="16"/>
       <c r="D46" s="23"/>
       <c r="E46" s="17"/>
-      <c r="F46" s="46"/>
+      <c r="F46" s="43"/>
       <c r="G46" s="23"/>
-      <c r="H46" s="38"/>
+      <c r="H46" s="35"/>
       <c r="I46" s="31"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -4633,8 +4479,8 @@
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="33"/>
       <c r="V46" s="8"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -4643,9 +4489,9 @@
       <c r="C47" s="16"/>
       <c r="D47" s="23"/>
       <c r="E47" s="17"/>
-      <c r="F47" s="46"/>
+      <c r="F47" s="43"/>
       <c r="G47" s="23"/>
-      <c r="H47" s="38"/>
+      <c r="H47" s="35"/>
       <c r="I47" s="31"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -4657,8 +4503,8 @@
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
       <c r="V47" s="8"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
@@ -4667,9 +4513,9 @@
       <c r="C48" s="16"/>
       <c r="D48" s="23"/>
       <c r="E48" s="17"/>
-      <c r="F48" s="46"/>
+      <c r="F48" s="43"/>
       <c r="G48" s="23"/>
-      <c r="H48" s="38"/>
+      <c r="H48" s="35"/>
       <c r="I48" s="31"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -4681,8 +4527,8 @@
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="33"/>
       <c r="V48" s="8"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
@@ -4691,9 +4537,9 @@
       <c r="C49" s="16"/>
       <c r="D49" s="23"/>
       <c r="E49" s="17"/>
-      <c r="F49" s="46"/>
+      <c r="F49" s="43"/>
       <c r="G49" s="23"/>
-      <c r="H49" s="38"/>
+      <c r="H49" s="35"/>
       <c r="I49" s="31"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -4705,8 +4551,8 @@
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
       <c r="V49" s="8"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
@@ -4715,9 +4561,9 @@
       <c r="C50" s="16"/>
       <c r="D50" s="23"/>
       <c r="E50" s="17"/>
-      <c r="F50" s="46"/>
+      <c r="F50" s="43"/>
       <c r="G50" s="23"/>
-      <c r="H50" s="38"/>
+      <c r="H50" s="35"/>
       <c r="I50" s="31"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -4729,8 +4575,8 @@
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
+      <c r="T50" s="33"/>
+      <c r="U50" s="33"/>
       <c r="V50" s="8"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -4739,9 +4585,9 @@
       <c r="C51" s="16"/>
       <c r="D51" s="23"/>
       <c r="E51" s="17"/>
-      <c r="F51" s="46"/>
+      <c r="F51" s="43"/>
       <c r="G51" s="23"/>
-      <c r="H51" s="38"/>
+      <c r="H51" s="35"/>
       <c r="I51" s="31"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -4753,8 +4599,8 @@
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
       <c r="S51" s="8"/>
-      <c r="T51" s="36"/>
-      <c r="U51" s="36"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
       <c r="V51" s="8"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
@@ -4763,9 +4609,9 @@
       <c r="C52" s="16"/>
       <c r="D52" s="23"/>
       <c r="E52" s="17"/>
-      <c r="F52" s="46"/>
+      <c r="F52" s="43"/>
       <c r="G52" s="23"/>
-      <c r="H52" s="38"/>
+      <c r="H52" s="35"/>
       <c r="I52" s="31"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -4777,8 +4623,8 @@
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
       <c r="V52" s="8"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
@@ -4787,9 +4633,9 @@
       <c r="C53" s="16"/>
       <c r="D53" s="23"/>
       <c r="E53" s="17"/>
-      <c r="F53" s="46"/>
+      <c r="F53" s="43"/>
       <c r="G53" s="23"/>
-      <c r="H53" s="38"/>
+      <c r="H53" s="35"/>
       <c r="I53" s="31"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -4801,8 +4647,8 @@
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
       <c r="S53" s="8"/>
-      <c r="T53" s="36"/>
-      <c r="U53" s="36"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
       <c r="V53" s="8"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -4811,9 +4657,9 @@
       <c r="C54" s="16"/>
       <c r="D54" s="23"/>
       <c r="E54" s="17"/>
-      <c r="F54" s="46"/>
+      <c r="F54" s="43"/>
       <c r="G54" s="23"/>
-      <c r="H54" s="38"/>
+      <c r="H54" s="35"/>
       <c r="I54" s="31"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -4825,8 +4671,8 @@
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33"/>
       <c r="V54" s="8"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
@@ -4835,9 +4681,9 @@
       <c r="C55" s="16"/>
       <c r="D55" s="23"/>
       <c r="E55" s="17"/>
-      <c r="F55" s="46"/>
+      <c r="F55" s="43"/>
       <c r="G55" s="23"/>
-      <c r="H55" s="38"/>
+      <c r="H55" s="35"/>
       <c r="I55" s="31"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -4849,8 +4695,8 @@
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
       <c r="S55" s="8"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
       <c r="V55" s="8"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -4859,9 +4705,9 @@
       <c r="C56" s="16"/>
       <c r="D56" s="23"/>
       <c r="E56" s="17"/>
-      <c r="F56" s="46"/>
+      <c r="F56" s="43"/>
       <c r="G56" s="23"/>
-      <c r="H56" s="38"/>
+      <c r="H56" s="35"/>
       <c r="I56" s="31"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
@@ -4873,8 +4719,8 @@
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
       <c r="S56" s="8"/>
-      <c r="T56" s="36"/>
-      <c r="U56" s="36"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="33"/>
       <c r="V56" s="8"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
@@ -4883,9 +4729,9 @@
       <c r="C57" s="16"/>
       <c r="D57" s="23"/>
       <c r="E57" s="17"/>
-      <c r="F57" s="46"/>
+      <c r="F57" s="43"/>
       <c r="G57" s="23"/>
-      <c r="H57" s="38"/>
+      <c r="H57" s="35"/>
       <c r="I57" s="31"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
@@ -4897,8 +4743,8 @@
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
       <c r="S57" s="8"/>
-      <c r="T57" s="36"/>
-      <c r="U57" s="36"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="33"/>
       <c r="V57" s="8"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
@@ -4907,9 +4753,9 @@
       <c r="C58" s="16"/>
       <c r="D58" s="23"/>
       <c r="E58" s="17"/>
-      <c r="F58" s="46"/>
+      <c r="F58" s="43"/>
       <c r="G58" s="23"/>
-      <c r="H58" s="38"/>
+      <c r="H58" s="35"/>
       <c r="I58" s="31"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -4921,8 +4767,8 @@
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
       <c r="S58" s="8"/>
-      <c r="T58" s="36"/>
-      <c r="U58" s="36"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
       <c r="V58" s="8"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
@@ -4931,9 +4777,9 @@
       <c r="C59" s="16"/>
       <c r="D59" s="23"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="46"/>
+      <c r="F59" s="43"/>
       <c r="G59" s="23"/>
-      <c r="H59" s="38"/>
+      <c r="H59" s="35"/>
       <c r="I59" s="31"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -4945,8 +4791,8 @@
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
       <c r="S59" s="8"/>
-      <c r="T59" s="36"/>
-      <c r="U59" s="36"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33"/>
       <c r="V59" s="8"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
@@ -4955,9 +4801,9 @@
       <c r="C60" s="16"/>
       <c r="D60" s="23"/>
       <c r="E60" s="17"/>
-      <c r="F60" s="46"/>
+      <c r="F60" s="43"/>
       <c r="G60" s="23"/>
-      <c r="H60" s="38"/>
+      <c r="H60" s="35"/>
       <c r="I60" s="31"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
@@ -4969,8 +4815,8 @@
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
       <c r="S60" s="8"/>
-      <c r="T60" s="36"/>
-      <c r="U60" s="36"/>
+      <c r="T60" s="33"/>
+      <c r="U60" s="33"/>
       <c r="V60" s="8"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
@@ -4979,9 +4825,9 @@
       <c r="C61" s="16"/>
       <c r="D61" s="23"/>
       <c r="E61" s="17"/>
-      <c r="F61" s="46"/>
+      <c r="F61" s="43"/>
       <c r="G61" s="23"/>
-      <c r="H61" s="38"/>
+      <c r="H61" s="35"/>
       <c r="I61" s="31"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
@@ -4993,8 +4839,8 @@
       <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
       <c r="S61" s="8"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="33"/>
       <c r="V61" s="8"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
@@ -5003,9 +4849,9 @@
       <c r="C62" s="16"/>
       <c r="D62" s="23"/>
       <c r="E62" s="17"/>
-      <c r="F62" s="46"/>
+      <c r="F62" s="43"/>
       <c r="G62" s="23"/>
-      <c r="H62" s="38"/>
+      <c r="H62" s="35"/>
       <c r="I62" s="31"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -5017,8 +4863,8 @@
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
+      <c r="T62" s="33"/>
+      <c r="U62" s="33"/>
       <c r="V62" s="8"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -5027,9 +4873,9 @@
       <c r="C63" s="16"/>
       <c r="D63" s="23"/>
       <c r="E63" s="17"/>
-      <c r="F63" s="46"/>
+      <c r="F63" s="43"/>
       <c r="G63" s="23"/>
-      <c r="H63" s="38"/>
+      <c r="H63" s="35"/>
       <c r="I63" s="31"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -5041,8 +4887,8 @@
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
-      <c r="T63" s="36"/>
-      <c r="U63" s="36"/>
+      <c r="T63" s="33"/>
+      <c r="U63" s="33"/>
       <c r="V63" s="8"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
@@ -5051,9 +4897,9 @@
       <c r="C64" s="16"/>
       <c r="D64" s="23"/>
       <c r="E64" s="17"/>
-      <c r="F64" s="46"/>
+      <c r="F64" s="43"/>
       <c r="G64" s="23"/>
-      <c r="H64" s="38"/>
+      <c r="H64" s="35"/>
       <c r="I64" s="31"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -5065,8 +4911,8 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
       <c r="S64" s="8"/>
-      <c r="T64" s="36"/>
-      <c r="U64" s="36"/>
+      <c r="T64" s="33"/>
+      <c r="U64" s="33"/>
       <c r="V64" s="8"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -5075,9 +4921,9 @@
       <c r="C65" s="16"/>
       <c r="D65" s="23"/>
       <c r="E65" s="17"/>
-      <c r="F65" s="46"/>
+      <c r="F65" s="43"/>
       <c r="G65" s="23"/>
-      <c r="H65" s="38"/>
+      <c r="H65" s="35"/>
       <c r="I65" s="31"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
@@ -5089,8 +4935,8 @@
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
-      <c r="T65" s="36"/>
-      <c r="U65" s="36"/>
+      <c r="T65" s="33"/>
+      <c r="U65" s="33"/>
       <c r="V65" s="8"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -5099,9 +4945,9 @@
       <c r="C66" s="16"/>
       <c r="D66" s="23"/>
       <c r="E66" s="17"/>
-      <c r="F66" s="46"/>
+      <c r="F66" s="43"/>
       <c r="G66" s="23"/>
-      <c r="H66" s="38"/>
+      <c r="H66" s="35"/>
       <c r="I66" s="31"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -5113,8 +4959,8 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
       <c r="S66" s="8"/>
-      <c r="T66" s="36"/>
-      <c r="U66" s="36"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
       <c r="V66" s="8"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
@@ -5123,9 +4969,9 @@
       <c r="C67" s="16"/>
       <c r="D67" s="23"/>
       <c r="E67" s="17"/>
-      <c r="F67" s="46"/>
+      <c r="F67" s="43"/>
       <c r="G67" s="23"/>
-      <c r="H67" s="38"/>
+      <c r="H67" s="35"/>
       <c r="I67" s="31"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -5137,8 +4983,8 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
       <c r="S67" s="8"/>
-      <c r="T67" s="36"/>
-      <c r="U67" s="36"/>
+      <c r="T67" s="33"/>
+      <c r="U67" s="33"/>
       <c r="V67" s="8"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -5147,9 +4993,9 @@
       <c r="C68" s="16"/>
       <c r="D68" s="23"/>
       <c r="E68" s="17"/>
-      <c r="F68" s="46"/>
+      <c r="F68" s="43"/>
       <c r="G68" s="23"/>
-      <c r="H68" s="38"/>
+      <c r="H68" s="35"/>
       <c r="I68" s="31"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
@@ -5161,8 +5007,8 @@
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
+      <c r="T68" s="33"/>
+      <c r="U68" s="33"/>
       <c r="V68" s="8"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
@@ -5171,9 +5017,9 @@
       <c r="C69" s="16"/>
       <c r="D69" s="23"/>
       <c r="E69" s="17"/>
-      <c r="F69" s="46"/>
+      <c r="F69" s="43"/>
       <c r="G69" s="23"/>
-      <c r="H69" s="38"/>
+      <c r="H69" s="35"/>
       <c r="I69" s="31"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
@@ -5185,8 +5031,8 @@
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
       <c r="S69" s="8"/>
-      <c r="T69" s="36"/>
-      <c r="U69" s="36"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="33"/>
       <c r="V69" s="8"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
@@ -5195,9 +5041,9 @@
       <c r="C70" s="16"/>
       <c r="D70" s="23"/>
       <c r="E70" s="17"/>
-      <c r="F70" s="46"/>
+      <c r="F70" s="43"/>
       <c r="G70" s="23"/>
-      <c r="H70" s="38"/>
+      <c r="H70" s="35"/>
       <c r="I70" s="31"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
@@ -5209,8 +5055,8 @@
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
       <c r="S70" s="8"/>
-      <c r="T70" s="36"/>
-      <c r="U70" s="36"/>
+      <c r="T70" s="33"/>
+      <c r="U70" s="33"/>
       <c r="V70" s="8"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
@@ -5219,9 +5065,9 @@
       <c r="C71" s="16"/>
       <c r="D71" s="23"/>
       <c r="E71" s="17"/>
-      <c r="F71" s="46"/>
+      <c r="F71" s="43"/>
       <c r="G71" s="23"/>
-      <c r="H71" s="38"/>
+      <c r="H71" s="35"/>
       <c r="I71" s="31"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
@@ -5233,8 +5079,8 @@
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
       <c r="S71" s="8"/>
-      <c r="T71" s="36"/>
-      <c r="U71" s="36"/>
+      <c r="T71" s="33"/>
+      <c r="U71" s="33"/>
       <c r="V71" s="8"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -5243,9 +5089,9 @@
       <c r="C72" s="16"/>
       <c r="D72" s="23"/>
       <c r="E72" s="17"/>
-      <c r="F72" s="46"/>
+      <c r="F72" s="43"/>
       <c r="G72" s="23"/>
-      <c r="H72" s="38"/>
+      <c r="H72" s="35"/>
       <c r="I72" s="31"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
@@ -5257,8 +5103,8 @@
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
       <c r="S72" s="8"/>
-      <c r="T72" s="36"/>
-      <c r="U72" s="36"/>
+      <c r="T72" s="33"/>
+      <c r="U72" s="33"/>
       <c r="V72" s="8"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -5267,9 +5113,9 @@
       <c r="C73" s="16"/>
       <c r="D73" s="23"/>
       <c r="E73" s="17"/>
-      <c r="F73" s="46"/>
+      <c r="F73" s="43"/>
       <c r="G73" s="23"/>
-      <c r="H73" s="38"/>
+      <c r="H73" s="35"/>
       <c r="I73" s="31"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
@@ -5281,8 +5127,8 @@
       <c r="Q73" s="8"/>
       <c r="R73" s="8"/>
       <c r="S73" s="8"/>
-      <c r="T73" s="36"/>
-      <c r="U73" s="36"/>
+      <c r="T73" s="33"/>
+      <c r="U73" s="33"/>
       <c r="V73" s="8"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -5291,9 +5137,9 @@
       <c r="C74" s="16"/>
       <c r="D74" s="23"/>
       <c r="E74" s="17"/>
-      <c r="F74" s="46"/>
+      <c r="F74" s="43"/>
       <c r="G74" s="23"/>
-      <c r="H74" s="38"/>
+      <c r="H74" s="35"/>
       <c r="I74" s="31"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
@@ -5305,8 +5151,8 @@
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
       <c r="S74" s="8"/>
-      <c r="T74" s="36"/>
-      <c r="U74" s="36"/>
+      <c r="T74" s="33"/>
+      <c r="U74" s="33"/>
       <c r="V74" s="8"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -5315,9 +5161,9 @@
       <c r="C75" s="16"/>
       <c r="D75" s="23"/>
       <c r="E75" s="17"/>
-      <c r="F75" s="46"/>
+      <c r="F75" s="43"/>
       <c r="G75" s="23"/>
-      <c r="H75" s="38"/>
+      <c r="H75" s="35"/>
       <c r="I75" s="31"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
@@ -5329,8 +5175,8 @@
       <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
       <c r="S75" s="8"/>
-      <c r="T75" s="36"/>
-      <c r="U75" s="36"/>
+      <c r="T75" s="33"/>
+      <c r="U75" s="33"/>
       <c r="V75" s="8"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -5339,9 +5185,9 @@
       <c r="C76" s="16"/>
       <c r="D76" s="23"/>
       <c r="E76" s="17"/>
-      <c r="F76" s="46"/>
+      <c r="F76" s="43"/>
       <c r="G76" s="23"/>
-      <c r="H76" s="38"/>
+      <c r="H76" s="35"/>
       <c r="I76" s="31"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
@@ -5353,8 +5199,8 @@
       <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
       <c r="S76" s="8"/>
-      <c r="T76" s="36"/>
-      <c r="U76" s="36"/>
+      <c r="T76" s="33"/>
+      <c r="U76" s="33"/>
       <c r="V76" s="8"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -5363,9 +5209,9 @@
       <c r="C77" s="16"/>
       <c r="D77" s="23"/>
       <c r="E77" s="17"/>
-      <c r="F77" s="46"/>
+      <c r="F77" s="43"/>
       <c r="G77" s="23"/>
-      <c r="H77" s="38"/>
+      <c r="H77" s="35"/>
       <c r="I77" s="31"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
@@ -5377,8 +5223,8 @@
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
       <c r="S77" s="8"/>
-      <c r="T77" s="36"/>
-      <c r="U77" s="36"/>
+      <c r="T77" s="33"/>
+      <c r="U77" s="33"/>
       <c r="V77" s="8"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
@@ -5387,9 +5233,9 @@
       <c r="C78" s="16"/>
       <c r="D78" s="23"/>
       <c r="E78" s="17"/>
-      <c r="F78" s="46"/>
+      <c r="F78" s="43"/>
       <c r="G78" s="23"/>
-      <c r="H78" s="38"/>
+      <c r="H78" s="35"/>
       <c r="I78" s="31"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
@@ -5401,8 +5247,8 @@
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
       <c r="S78" s="8"/>
-      <c r="T78" s="36"/>
-      <c r="U78" s="36"/>
+      <c r="T78" s="33"/>
+      <c r="U78" s="33"/>
       <c r="V78" s="8"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
@@ -5411,9 +5257,9 @@
       <c r="C79" s="16"/>
       <c r="D79" s="23"/>
       <c r="E79" s="17"/>
-      <c r="F79" s="46"/>
+      <c r="F79" s="43"/>
       <c r="G79" s="23"/>
-      <c r="H79" s="38"/>
+      <c r="H79" s="35"/>
       <c r="I79" s="31"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
@@ -5425,8 +5271,8 @@
       <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
       <c r="S79" s="8"/>
-      <c r="T79" s="36"/>
-      <c r="U79" s="36"/>
+      <c r="T79" s="33"/>
+      <c r="U79" s="33"/>
       <c r="V79" s="8"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
@@ -5435,9 +5281,9 @@
       <c r="C80" s="16"/>
       <c r="D80" s="23"/>
       <c r="E80" s="17"/>
-      <c r="F80" s="46"/>
+      <c r="F80" s="43"/>
       <c r="G80" s="23"/>
-      <c r="H80" s="38"/>
+      <c r="H80" s="35"/>
       <c r="I80" s="31"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
@@ -5449,8 +5295,8 @@
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
       <c r="S80" s="8"/>
-      <c r="T80" s="36"/>
-      <c r="U80" s="36"/>
+      <c r="T80" s="33"/>
+      <c r="U80" s="33"/>
       <c r="V80" s="8"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
@@ -5459,9 +5305,9 @@
       <c r="C81" s="16"/>
       <c r="D81" s="23"/>
       <c r="E81" s="17"/>
-      <c r="F81" s="46"/>
+      <c r="F81" s="43"/>
       <c r="G81" s="23"/>
-      <c r="H81" s="38"/>
+      <c r="H81" s="35"/>
       <c r="I81" s="31"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -5473,8 +5319,8 @@
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
       <c r="S81" s="8"/>
-      <c r="T81" s="36"/>
-      <c r="U81" s="36"/>
+      <c r="T81" s="33"/>
+      <c r="U81" s="33"/>
       <c r="V81" s="8"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
@@ -5483,9 +5329,9 @@
       <c r="C82" s="16"/>
       <c r="D82" s="23"/>
       <c r="E82" s="17"/>
-      <c r="F82" s="46"/>
+      <c r="F82" s="43"/>
       <c r="G82" s="23"/>
-      <c r="H82" s="38"/>
+      <c r="H82" s="35"/>
       <c r="I82" s="31"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -5497,8 +5343,8 @@
       <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
       <c r="S82" s="8"/>
-      <c r="T82" s="36"/>
-      <c r="U82" s="36"/>
+      <c r="T82" s="33"/>
+      <c r="U82" s="33"/>
       <c r="V82" s="8"/>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
@@ -5507,9 +5353,9 @@
       <c r="C83" s="16"/>
       <c r="D83" s="23"/>
       <c r="E83" s="17"/>
-      <c r="F83" s="46"/>
+      <c r="F83" s="43"/>
       <c r="G83" s="23"/>
-      <c r="H83" s="38"/>
+      <c r="H83" s="35"/>
       <c r="I83" s="31"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -5521,8 +5367,8 @@
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
       <c r="S83" s="8"/>
-      <c r="T83" s="36"/>
-      <c r="U83" s="36"/>
+      <c r="T83" s="33"/>
+      <c r="U83" s="33"/>
       <c r="V83" s="8"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
@@ -5531,9 +5377,9 @@
       <c r="C84" s="16"/>
       <c r="D84" s="23"/>
       <c r="E84" s="17"/>
-      <c r="F84" s="46"/>
+      <c r="F84" s="43"/>
       <c r="G84" s="23"/>
-      <c r="H84" s="38"/>
+      <c r="H84" s="35"/>
       <c r="I84" s="31"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
@@ -5545,8 +5391,8 @@
       <c r="Q84" s="8"/>
       <c r="R84" s="8"/>
       <c r="S84" s="8"/>
-      <c r="T84" s="36"/>
-      <c r="U84" s="36"/>
+      <c r="T84" s="33"/>
+      <c r="U84" s="33"/>
       <c r="V84" s="8"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
@@ -5555,9 +5401,9 @@
       <c r="C85" s="16"/>
       <c r="D85" s="23"/>
       <c r="E85" s="17"/>
-      <c r="F85" s="46"/>
+      <c r="F85" s="43"/>
       <c r="G85" s="23"/>
-      <c r="H85" s="38"/>
+      <c r="H85" s="35"/>
       <c r="I85" s="31"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
@@ -5569,8 +5415,8 @@
       <c r="Q85" s="8"/>
       <c r="R85" s="8"/>
       <c r="S85" s="8"/>
-      <c r="T85" s="36"/>
-      <c r="U85" s="36"/>
+      <c r="T85" s="33"/>
+      <c r="U85" s="33"/>
       <c r="V85" s="8"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
@@ -5579,9 +5425,9 @@
       <c r="C86" s="16"/>
       <c r="D86" s="23"/>
       <c r="E86" s="17"/>
-      <c r="F86" s="46"/>
+      <c r="F86" s="43"/>
       <c r="G86" s="23"/>
-      <c r="H86" s="38"/>
+      <c r="H86" s="35"/>
       <c r="I86" s="31"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
@@ -5593,8 +5439,8 @@
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
       <c r="S86" s="8"/>
-      <c r="T86" s="36"/>
-      <c r="U86" s="36"/>
+      <c r="T86" s="33"/>
+      <c r="U86" s="33"/>
       <c r="V86" s="8"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
@@ -5603,9 +5449,9 @@
       <c r="C87" s="16"/>
       <c r="D87" s="23"/>
       <c r="E87" s="17"/>
-      <c r="F87" s="46"/>
+      <c r="F87" s="43"/>
       <c r="G87" s="23"/>
-      <c r="H87" s="38"/>
+      <c r="H87" s="35"/>
       <c r="I87" s="31"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
@@ -5617,8 +5463,8 @@
       <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
       <c r="S87" s="8"/>
-      <c r="T87" s="36"/>
-      <c r="U87" s="36"/>
+      <c r="T87" s="33"/>
+      <c r="U87" s="33"/>
       <c r="V87" s="8"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
@@ -5627,9 +5473,9 @@
       <c r="C88" s="16"/>
       <c r="D88" s="23"/>
       <c r="E88" s="17"/>
-      <c r="F88" s="46"/>
+      <c r="F88" s="43"/>
       <c r="G88" s="23"/>
-      <c r="H88" s="38"/>
+      <c r="H88" s="35"/>
       <c r="I88" s="31"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
@@ -5641,8 +5487,8 @@
       <c r="Q88" s="8"/>
       <c r="R88" s="8"/>
       <c r="S88" s="8"/>
-      <c r="T88" s="36"/>
-      <c r="U88" s="36"/>
+      <c r="T88" s="33"/>
+      <c r="U88" s="33"/>
       <c r="V88" s="8"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
@@ -5651,9 +5497,9 @@
       <c r="C89" s="16"/>
       <c r="D89" s="23"/>
       <c r="E89" s="17"/>
-      <c r="F89" s="46"/>
+      <c r="F89" s="43"/>
       <c r="G89" s="23"/>
-      <c r="H89" s="38"/>
+      <c r="H89" s="35"/>
       <c r="I89" s="31"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
@@ -5665,8 +5511,8 @@
       <c r="Q89" s="8"/>
       <c r="R89" s="8"/>
       <c r="S89" s="8"/>
-      <c r="T89" s="36"/>
-      <c r="U89" s="36"/>
+      <c r="T89" s="33"/>
+      <c r="U89" s="33"/>
       <c r="V89" s="8"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
@@ -5675,9 +5521,9 @@
       <c r="C90" s="16"/>
       <c r="D90" s="23"/>
       <c r="E90" s="17"/>
-      <c r="F90" s="46"/>
+      <c r="F90" s="43"/>
       <c r="G90" s="23"/>
-      <c r="H90" s="38"/>
+      <c r="H90" s="35"/>
       <c r="I90" s="31"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
@@ -5689,8 +5535,8 @@
       <c r="Q90" s="8"/>
       <c r="R90" s="8"/>
       <c r="S90" s="8"/>
-      <c r="T90" s="36"/>
-      <c r="U90" s="36"/>
+      <c r="T90" s="33"/>
+      <c r="U90" s="33"/>
       <c r="V90" s="8"/>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
@@ -5699,9 +5545,9 @@
       <c r="C91" s="16"/>
       <c r="D91" s="23"/>
       <c r="E91" s="17"/>
-      <c r="F91" s="46"/>
+      <c r="F91" s="43"/>
       <c r="G91" s="23"/>
-      <c r="H91" s="38"/>
+      <c r="H91" s="35"/>
       <c r="I91" s="31"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
@@ -5713,8 +5559,8 @@
       <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
       <c r="S91" s="8"/>
-      <c r="T91" s="36"/>
-      <c r="U91" s="36"/>
+      <c r="T91" s="33"/>
+      <c r="U91" s="33"/>
       <c r="V91" s="8"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
@@ -5723,9 +5569,9 @@
       <c r="C92" s="16"/>
       <c r="D92" s="23"/>
       <c r="E92" s="17"/>
-      <c r="F92" s="46"/>
+      <c r="F92" s="43"/>
       <c r="G92" s="23"/>
-      <c r="H92" s="38"/>
+      <c r="H92" s="35"/>
       <c r="I92" s="31"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
@@ -5737,8 +5583,8 @@
       <c r="Q92" s="8"/>
       <c r="R92" s="8"/>
       <c r="S92" s="8"/>
-      <c r="T92" s="36"/>
-      <c r="U92" s="36"/>
+      <c r="T92" s="33"/>
+      <c r="U92" s="33"/>
       <c r="V92" s="8"/>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
@@ -5747,9 +5593,9 @@
       <c r="C93" s="16"/>
       <c r="D93" s="23"/>
       <c r="E93" s="17"/>
-      <c r="F93" s="46"/>
+      <c r="F93" s="43"/>
       <c r="G93" s="23"/>
-      <c r="H93" s="38"/>
+      <c r="H93" s="35"/>
       <c r="I93" s="31"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
@@ -5761,8 +5607,8 @@
       <c r="Q93" s="8"/>
       <c r="R93" s="8"/>
       <c r="S93" s="8"/>
-      <c r="T93" s="36"/>
-      <c r="U93" s="36"/>
+      <c r="T93" s="33"/>
+      <c r="U93" s="33"/>
       <c r="V93" s="8"/>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
@@ -5771,9 +5617,9 @@
       <c r="C94" s="16"/>
       <c r="D94" s="23"/>
       <c r="E94" s="17"/>
-      <c r="F94" s="46"/>
+      <c r="F94" s="43"/>
       <c r="G94" s="23"/>
-      <c r="H94" s="38"/>
+      <c r="H94" s="35"/>
       <c r="I94" s="31"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
@@ -5785,8 +5631,8 @@
       <c r="Q94" s="8"/>
       <c r="R94" s="8"/>
       <c r="S94" s="8"/>
-      <c r="T94" s="36"/>
-      <c r="U94" s="36"/>
+      <c r="T94" s="33"/>
+      <c r="U94" s="33"/>
       <c r="V94" s="8"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
@@ -5795,9 +5641,9 @@
       <c r="C95" s="16"/>
       <c r="D95" s="23"/>
       <c r="E95" s="17"/>
-      <c r="F95" s="46"/>
+      <c r="F95" s="43"/>
       <c r="G95" s="23"/>
-      <c r="H95" s="38"/>
+      <c r="H95" s="35"/>
       <c r="I95" s="31"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
@@ -5809,8 +5655,8 @@
       <c r="Q95" s="8"/>
       <c r="R95" s="8"/>
       <c r="S95" s="8"/>
-      <c r="T95" s="36"/>
-      <c r="U95" s="36"/>
+      <c r="T95" s="33"/>
+      <c r="U95" s="33"/>
       <c r="V95" s="8"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
@@ -5819,9 +5665,9 @@
       <c r="C96" s="16"/>
       <c r="D96" s="23"/>
       <c r="E96" s="17"/>
-      <c r="F96" s="46"/>
+      <c r="F96" s="43"/>
       <c r="G96" s="23"/>
-      <c r="H96" s="38"/>
+      <c r="H96" s="35"/>
       <c r="I96" s="31"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
@@ -5833,8 +5679,8 @@
       <c r="Q96" s="8"/>
       <c r="R96" s="8"/>
       <c r="S96" s="8"/>
-      <c r="T96" s="36"/>
-      <c r="U96" s="36"/>
+      <c r="T96" s="33"/>
+      <c r="U96" s="33"/>
       <c r="V96" s="8"/>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
@@ -5843,9 +5689,9 @@
       <c r="C97" s="16"/>
       <c r="D97" s="23"/>
       <c r="E97" s="17"/>
-      <c r="F97" s="46"/>
+      <c r="F97" s="43"/>
       <c r="G97" s="23"/>
-      <c r="H97" s="38"/>
+      <c r="H97" s="35"/>
       <c r="I97" s="31"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
@@ -5857,8 +5703,8 @@
       <c r="Q97" s="8"/>
       <c r="R97" s="8"/>
       <c r="S97" s="8"/>
-      <c r="T97" s="36"/>
-      <c r="U97" s="36"/>
+      <c r="T97" s="33"/>
+      <c r="U97" s="33"/>
       <c r="V97" s="8"/>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
@@ -5867,9 +5713,9 @@
       <c r="C98" s="16"/>
       <c r="D98" s="23"/>
       <c r="E98" s="17"/>
-      <c r="F98" s="46"/>
+      <c r="F98" s="43"/>
       <c r="G98" s="23"/>
-      <c r="H98" s="38"/>
+      <c r="H98" s="35"/>
       <c r="I98" s="31"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
@@ -5881,8 +5727,8 @@
       <c r="Q98" s="8"/>
       <c r="R98" s="8"/>
       <c r="S98" s="8"/>
-      <c r="T98" s="36"/>
-      <c r="U98" s="36"/>
+      <c r="T98" s="33"/>
+      <c r="U98" s="33"/>
       <c r="V98" s="8"/>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
@@ -5891,9 +5737,9 @@
       <c r="C99" s="16"/>
       <c r="D99" s="23"/>
       <c r="E99" s="17"/>
-      <c r="F99" s="46"/>
+      <c r="F99" s="43"/>
       <c r="G99" s="23"/>
-      <c r="H99" s="38"/>
+      <c r="H99" s="35"/>
       <c r="I99" s="31"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
@@ -5905,8 +5751,8 @@
       <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
       <c r="S99" s="8"/>
-      <c r="T99" s="36"/>
-      <c r="U99" s="36"/>
+      <c r="T99" s="33"/>
+      <c r="U99" s="33"/>
       <c r="V99" s="8"/>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
@@ -5915,9 +5761,9 @@
       <c r="C100" s="16"/>
       <c r="D100" s="23"/>
       <c r="E100" s="17"/>
-      <c r="F100" s="46"/>
+      <c r="F100" s="43"/>
       <c r="G100" s="23"/>
-      <c r="H100" s="38"/>
+      <c r="H100" s="35"/>
       <c r="I100" s="31"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
@@ -5929,8 +5775,8 @@
       <c r="Q100" s="8"/>
       <c r="R100" s="8"/>
       <c r="S100" s="8"/>
-      <c r="T100" s="36"/>
-      <c r="U100" s="36"/>
+      <c r="T100" s="33"/>
+      <c r="U100" s="33"/>
       <c r="V100" s="8"/>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
@@ -5939,9 +5785,9 @@
       <c r="C101" s="16"/>
       <c r="D101" s="23"/>
       <c r="E101" s="17"/>
-      <c r="F101" s="46"/>
+      <c r="F101" s="43"/>
       <c r="G101" s="23"/>
-      <c r="H101" s="38"/>
+      <c r="H101" s="35"/>
       <c r="I101" s="31"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
@@ -5953,8 +5799,8 @@
       <c r="Q101" s="8"/>
       <c r="R101" s="8"/>
       <c r="S101" s="8"/>
-      <c r="T101" s="36"/>
-      <c r="U101" s="36"/>
+      <c r="T101" s="33"/>
+      <c r="U101" s="33"/>
       <c r="V101" s="8"/>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
@@ -5963,9 +5809,9 @@
       <c r="C102" s="16"/>
       <c r="D102" s="23"/>
       <c r="E102" s="17"/>
-      <c r="F102" s="46"/>
+      <c r="F102" s="43"/>
       <c r="G102" s="23"/>
-      <c r="H102" s="38"/>
+      <c r="H102" s="35"/>
       <c r="I102" s="31"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
@@ -5977,8 +5823,8 @@
       <c r="Q102" s="8"/>
       <c r="R102" s="8"/>
       <c r="S102" s="8"/>
-      <c r="T102" s="36"/>
-      <c r="U102" s="36"/>
+      <c r="T102" s="33"/>
+      <c r="U102" s="33"/>
       <c r="V102" s="8"/>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
@@ -5987,9 +5833,9 @@
       <c r="C103" s="16"/>
       <c r="D103" s="23"/>
       <c r="E103" s="17"/>
-      <c r="F103" s="46"/>
+      <c r="F103" s="43"/>
       <c r="G103" s="23"/>
-      <c r="H103" s="38"/>
+      <c r="H103" s="35"/>
       <c r="I103" s="31"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
@@ -6001,8 +5847,8 @@
       <c r="Q103" s="8"/>
       <c r="R103" s="8"/>
       <c r="S103" s="8"/>
-      <c r="T103" s="36"/>
-      <c r="U103" s="36"/>
+      <c r="T103" s="33"/>
+      <c r="U103" s="33"/>
       <c r="V103" s="8"/>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
@@ -6011,9 +5857,9 @@
       <c r="C104" s="16"/>
       <c r="D104" s="23"/>
       <c r="E104" s="17"/>
-      <c r="F104" s="46"/>
+      <c r="F104" s="43"/>
       <c r="G104" s="23"/>
-      <c r="H104" s="38"/>
+      <c r="H104" s="35"/>
       <c r="I104" s="31"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
@@ -6025,8 +5871,8 @@
       <c r="Q104" s="8"/>
       <c r="R104" s="8"/>
       <c r="S104" s="8"/>
-      <c r="T104" s="36"/>
-      <c r="U104" s="36"/>
+      <c r="T104" s="33"/>
+      <c r="U104" s="33"/>
       <c r="V104" s="8"/>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
@@ -6035,9 +5881,9 @@
       <c r="C105" s="16"/>
       <c r="D105" s="23"/>
       <c r="E105" s="17"/>
-      <c r="F105" s="46"/>
+      <c r="F105" s="43"/>
       <c r="G105" s="23"/>
-      <c r="H105" s="38"/>
+      <c r="H105" s="35"/>
       <c r="I105" s="31"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
@@ -6049,8 +5895,8 @@
       <c r="Q105" s="8"/>
       <c r="R105" s="8"/>
       <c r="S105" s="8"/>
-      <c r="T105" s="36"/>
-      <c r="U105" s="36"/>
+      <c r="T105" s="33"/>
+      <c r="U105" s="33"/>
       <c r="V105" s="8"/>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
@@ -6059,9 +5905,9 @@
       <c r="C106" s="16"/>
       <c r="D106" s="23"/>
       <c r="E106" s="17"/>
-      <c r="F106" s="46"/>
+      <c r="F106" s="43"/>
       <c r="G106" s="23"/>
-      <c r="H106" s="38"/>
+      <c r="H106" s="35"/>
       <c r="I106" s="31"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
@@ -6073,8 +5919,8 @@
       <c r="Q106" s="8"/>
       <c r="R106" s="8"/>
       <c r="S106" s="8"/>
-      <c r="T106" s="36"/>
-      <c r="U106" s="36"/>
+      <c r="T106" s="33"/>
+      <c r="U106" s="33"/>
       <c r="V106" s="8"/>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
@@ -6083,9 +5929,9 @@
       <c r="C107" s="16"/>
       <c r="D107" s="23"/>
       <c r="E107" s="17"/>
-      <c r="F107" s="46"/>
+      <c r="F107" s="43"/>
       <c r="G107" s="23"/>
-      <c r="H107" s="38"/>
+      <c r="H107" s="35"/>
       <c r="I107" s="31"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
@@ -6097,8 +5943,8 @@
       <c r="Q107" s="8"/>
       <c r="R107" s="8"/>
       <c r="S107" s="8"/>
-      <c r="T107" s="36"/>
-      <c r="U107" s="36"/>
+      <c r="T107" s="33"/>
+      <c r="U107" s="33"/>
       <c r="V107" s="8"/>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
@@ -6107,9 +5953,9 @@
       <c r="C108" s="16"/>
       <c r="D108" s="23"/>
       <c r="E108" s="17"/>
-      <c r="F108" s="46"/>
+      <c r="F108" s="43"/>
       <c r="G108" s="23"/>
-      <c r="H108" s="38"/>
+      <c r="H108" s="35"/>
       <c r="I108" s="31"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
@@ -6121,8 +5967,8 @@
       <c r="Q108" s="8"/>
       <c r="R108" s="8"/>
       <c r="S108" s="8"/>
-      <c r="T108" s="36"/>
-      <c r="U108" s="36"/>
+      <c r="T108" s="33"/>
+      <c r="U108" s="33"/>
       <c r="V108" s="8"/>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
@@ -6131,9 +5977,9 @@
       <c r="C109" s="16"/>
       <c r="D109" s="23"/>
       <c r="E109" s="17"/>
-      <c r="F109" s="46"/>
+      <c r="F109" s="43"/>
       <c r="G109" s="23"/>
-      <c r="H109" s="38"/>
+      <c r="H109" s="35"/>
       <c r="I109" s="31"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
@@ -6145,8 +5991,8 @@
       <c r="Q109" s="8"/>
       <c r="R109" s="8"/>
       <c r="S109" s="8"/>
-      <c r="T109" s="36"/>
-      <c r="U109" s="36"/>
+      <c r="T109" s="33"/>
+      <c r="U109" s="33"/>
       <c r="V109" s="8"/>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
@@ -6155,9 +6001,9 @@
       <c r="C110" s="16"/>
       <c r="D110" s="23"/>
       <c r="E110" s="17"/>
-      <c r="F110" s="46"/>
+      <c r="F110" s="43"/>
       <c r="G110" s="23"/>
-      <c r="H110" s="38"/>
+      <c r="H110" s="35"/>
       <c r="I110" s="31"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
@@ -6169,8 +6015,8 @@
       <c r="Q110" s="8"/>
       <c r="R110" s="8"/>
       <c r="S110" s="8"/>
-      <c r="T110" s="36"/>
-      <c r="U110" s="36"/>
+      <c r="T110" s="33"/>
+      <c r="U110" s="33"/>
       <c r="V110" s="8"/>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
@@ -6179,9 +6025,9 @@
       <c r="C111" s="16"/>
       <c r="D111" s="23"/>
       <c r="E111" s="17"/>
-      <c r="F111" s="46"/>
+      <c r="F111" s="43"/>
       <c r="G111" s="23"/>
-      <c r="H111" s="38"/>
+      <c r="H111" s="35"/>
       <c r="I111" s="31"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
@@ -6193,8 +6039,8 @@
       <c r="Q111" s="8"/>
       <c r="R111" s="8"/>
       <c r="S111" s="8"/>
-      <c r="T111" s="36"/>
-      <c r="U111" s="36"/>
+      <c r="T111" s="33"/>
+      <c r="U111" s="33"/>
       <c r="V111" s="8"/>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
@@ -6203,9 +6049,9 @@
       <c r="C112" s="16"/>
       <c r="D112" s="23"/>
       <c r="E112" s="17"/>
-      <c r="F112" s="46"/>
+      <c r="F112" s="43"/>
       <c r="G112" s="23"/>
-      <c r="H112" s="38"/>
+      <c r="H112" s="35"/>
       <c r="I112" s="31"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
@@ -6217,8 +6063,8 @@
       <c r="Q112" s="8"/>
       <c r="R112" s="8"/>
       <c r="S112" s="8"/>
-      <c r="T112" s="36"/>
-      <c r="U112" s="36"/>
+      <c r="T112" s="33"/>
+      <c r="U112" s="33"/>
       <c r="V112" s="8"/>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.25">
@@ -6227,9 +6073,9 @@
       <c r="C113" s="16"/>
       <c r="D113" s="23"/>
       <c r="E113" s="17"/>
-      <c r="F113" s="46"/>
+      <c r="F113" s="43"/>
       <c r="G113" s="23"/>
-      <c r="H113" s="38"/>
+      <c r="H113" s="35"/>
       <c r="I113" s="31"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
@@ -6241,8 +6087,8 @@
       <c r="Q113" s="8"/>
       <c r="R113" s="8"/>
       <c r="S113" s="8"/>
-      <c r="T113" s="36"/>
-      <c r="U113" s="36"/>
+      <c r="T113" s="33"/>
+      <c r="U113" s="33"/>
       <c r="V113" s="8"/>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.25">
@@ -6251,9 +6097,9 @@
       <c r="C114" s="16"/>
       <c r="D114" s="23"/>
       <c r="E114" s="17"/>
-      <c r="F114" s="46"/>
+      <c r="F114" s="43"/>
       <c r="G114" s="23"/>
-      <c r="H114" s="38"/>
+      <c r="H114" s="35"/>
       <c r="I114" s="31"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
@@ -6265,8 +6111,8 @@
       <c r="Q114" s="8"/>
       <c r="R114" s="8"/>
       <c r="S114" s="8"/>
-      <c r="T114" s="36"/>
-      <c r="U114" s="36"/>
+      <c r="T114" s="33"/>
+      <c r="U114" s="33"/>
       <c r="V114" s="8"/>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.25">
@@ -6275,9 +6121,9 @@
       <c r="C115" s="16"/>
       <c r="D115" s="23"/>
       <c r="E115" s="17"/>
-      <c r="F115" s="46"/>
+      <c r="F115" s="43"/>
       <c r="G115" s="23"/>
-      <c r="H115" s="38"/>
+      <c r="H115" s="35"/>
       <c r="I115" s="31"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
@@ -6289,8 +6135,8 @@
       <c r="Q115" s="8"/>
       <c r="R115" s="8"/>
       <c r="S115" s="8"/>
-      <c r="T115" s="36"/>
-      <c r="U115" s="36"/>
+      <c r="T115" s="33"/>
+      <c r="U115" s="33"/>
       <c r="V115" s="8"/>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
@@ -6299,9 +6145,9 @@
       <c r="C116" s="16"/>
       <c r="D116" s="23"/>
       <c r="E116" s="17"/>
-      <c r="F116" s="46"/>
+      <c r="F116" s="43"/>
       <c r="G116" s="23"/>
-      <c r="H116" s="38"/>
+      <c r="H116" s="35"/>
       <c r="I116" s="31"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
@@ -6313,8 +6159,8 @@
       <c r="Q116" s="8"/>
       <c r="R116" s="8"/>
       <c r="S116" s="8"/>
-      <c r="T116" s="36"/>
-      <c r="U116" s="36"/>
+      <c r="T116" s="33"/>
+      <c r="U116" s="33"/>
       <c r="V116" s="8"/>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.25">
@@ -6323,9 +6169,9 @@
       <c r="C117" s="16"/>
       <c r="D117" s="23"/>
       <c r="E117" s="17"/>
-      <c r="F117" s="46"/>
+      <c r="F117" s="43"/>
       <c r="G117" s="23"/>
-      <c r="H117" s="38"/>
+      <c r="H117" s="35"/>
       <c r="I117" s="31"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
@@ -6337,8 +6183,8 @@
       <c r="Q117" s="8"/>
       <c r="R117" s="8"/>
       <c r="S117" s="8"/>
-      <c r="T117" s="36"/>
-      <c r="U117" s="36"/>
+      <c r="T117" s="33"/>
+      <c r="U117" s="33"/>
       <c r="V117" s="8"/>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
@@ -6347,9 +6193,9 @@
       <c r="C118" s="16"/>
       <c r="D118" s="23"/>
       <c r="E118" s="17"/>
-      <c r="F118" s="46"/>
+      <c r="F118" s="43"/>
       <c r="G118" s="23"/>
-      <c r="H118" s="38"/>
+      <c r="H118" s="35"/>
       <c r="I118" s="31"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
@@ -6361,8 +6207,8 @@
       <c r="Q118" s="8"/>
       <c r="R118" s="8"/>
       <c r="S118" s="8"/>
-      <c r="T118" s="36"/>
-      <c r="U118" s="36"/>
+      <c r="T118" s="33"/>
+      <c r="U118" s="33"/>
       <c r="V118" s="8"/>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
@@ -6371,9 +6217,9 @@
       <c r="C119" s="16"/>
       <c r="D119" s="23"/>
       <c r="E119" s="17"/>
-      <c r="F119" s="46"/>
+      <c r="F119" s="43"/>
       <c r="G119" s="23"/>
-      <c r="H119" s="38"/>
+      <c r="H119" s="35"/>
       <c r="I119" s="31"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
@@ -6385,8 +6231,8 @@
       <c r="Q119" s="8"/>
       <c r="R119" s="8"/>
       <c r="S119" s="8"/>
-      <c r="T119" s="36"/>
-      <c r="U119" s="36"/>
+      <c r="T119" s="33"/>
+      <c r="U119" s="33"/>
       <c r="V119" s="8"/>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
@@ -6395,9 +6241,9 @@
       <c r="C120" s="16"/>
       <c r="D120" s="23"/>
       <c r="E120" s="17"/>
-      <c r="F120" s="46"/>
+      <c r="F120" s="43"/>
       <c r="G120" s="23"/>
-      <c r="H120" s="38"/>
+      <c r="H120" s="35"/>
       <c r="I120" s="31"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
@@ -6409,8 +6255,8 @@
       <c r="Q120" s="8"/>
       <c r="R120" s="8"/>
       <c r="S120" s="8"/>
-      <c r="T120" s="36"/>
-      <c r="U120" s="36"/>
+      <c r="T120" s="33"/>
+      <c r="U120" s="33"/>
       <c r="V120" s="8"/>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.25">
@@ -6419,9 +6265,9 @@
       <c r="C121" s="16"/>
       <c r="D121" s="23"/>
       <c r="E121" s="17"/>
-      <c r="F121" s="46"/>
+      <c r="F121" s="43"/>
       <c r="G121" s="23"/>
-      <c r="H121" s="38"/>
+      <c r="H121" s="35"/>
       <c r="I121" s="31"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
@@ -6433,8 +6279,8 @@
       <c r="Q121" s="8"/>
       <c r="R121" s="8"/>
       <c r="S121" s="8"/>
-      <c r="T121" s="36"/>
-      <c r="U121" s="36"/>
+      <c r="T121" s="33"/>
+      <c r="U121" s="33"/>
       <c r="V121" s="8"/>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.25">
@@ -6443,9 +6289,9 @@
       <c r="C122" s="16"/>
       <c r="D122" s="23"/>
       <c r="E122" s="17"/>
-      <c r="F122" s="46"/>
+      <c r="F122" s="43"/>
       <c r="G122" s="23"/>
-      <c r="H122" s="38"/>
+      <c r="H122" s="35"/>
       <c r="I122" s="31"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
@@ -6457,8 +6303,8 @@
       <c r="Q122" s="8"/>
       <c r="R122" s="8"/>
       <c r="S122" s="8"/>
-      <c r="T122" s="36"/>
-      <c r="U122" s="36"/>
+      <c r="T122" s="33"/>
+      <c r="U122" s="33"/>
       <c r="V122" s="8"/>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
@@ -6467,9 +6313,9 @@
       <c r="C123" s="16"/>
       <c r="D123" s="23"/>
       <c r="E123" s="17"/>
-      <c r="F123" s="46"/>
+      <c r="F123" s="43"/>
       <c r="G123" s="23"/>
-      <c r="H123" s="38"/>
+      <c r="H123" s="35"/>
       <c r="I123" s="31"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
@@ -6481,8 +6327,8 @@
       <c r="Q123" s="8"/>
       <c r="R123" s="8"/>
       <c r="S123" s="8"/>
-      <c r="T123" s="36"/>
-      <c r="U123" s="36"/>
+      <c r="T123" s="33"/>
+      <c r="U123" s="33"/>
       <c r="V123" s="8"/>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
@@ -6491,9 +6337,9 @@
       <c r="C124" s="16"/>
       <c r="D124" s="23"/>
       <c r="E124" s="17"/>
-      <c r="F124" s="46"/>
+      <c r="F124" s="43"/>
       <c r="G124" s="23"/>
-      <c r="H124" s="38"/>
+      <c r="H124" s="35"/>
       <c r="I124" s="31"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
@@ -6505,8 +6351,8 @@
       <c r="Q124" s="8"/>
       <c r="R124" s="8"/>
       <c r="S124" s="8"/>
-      <c r="T124" s="36"/>
-      <c r="U124" s="36"/>
+      <c r="T124" s="33"/>
+      <c r="U124" s="33"/>
       <c r="V124" s="8"/>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.25">
@@ -6515,9 +6361,9 @@
       <c r="C125" s="16"/>
       <c r="D125" s="23"/>
       <c r="E125" s="17"/>
-      <c r="F125" s="46"/>
+      <c r="F125" s="43"/>
       <c r="G125" s="23"/>
-      <c r="H125" s="38"/>
+      <c r="H125" s="35"/>
       <c r="I125" s="31"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
@@ -6529,8 +6375,8 @@
       <c r="Q125" s="8"/>
       <c r="R125" s="8"/>
       <c r="S125" s="8"/>
-      <c r="T125" s="36"/>
-      <c r="U125" s="36"/>
+      <c r="T125" s="33"/>
+      <c r="U125" s="33"/>
       <c r="V125" s="8"/>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
@@ -6539,9 +6385,9 @@
       <c r="C126" s="16"/>
       <c r="D126" s="23"/>
       <c r="E126" s="17"/>
-      <c r="F126" s="46"/>
+      <c r="F126" s="43"/>
       <c r="G126" s="23"/>
-      <c r="H126" s="38"/>
+      <c r="H126" s="35"/>
       <c r="I126" s="31"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
@@ -6553,8 +6399,8 @@
       <c r="Q126" s="8"/>
       <c r="R126" s="8"/>
       <c r="S126" s="8"/>
-      <c r="T126" s="36"/>
-      <c r="U126" s="36"/>
+      <c r="T126" s="33"/>
+      <c r="U126" s="33"/>
       <c r="V126" s="8"/>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
@@ -6563,9 +6409,9 @@
       <c r="C127" s="16"/>
       <c r="D127" s="23"/>
       <c r="E127" s="17"/>
-      <c r="F127" s="46"/>
+      <c r="F127" s="43"/>
       <c r="G127" s="23"/>
-      <c r="H127" s="38"/>
+      <c r="H127" s="35"/>
       <c r="I127" s="31"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
@@ -6577,8 +6423,8 @@
       <c r="Q127" s="8"/>
       <c r="R127" s="8"/>
       <c r="S127" s="8"/>
-      <c r="T127" s="36"/>
-      <c r="U127" s="36"/>
+      <c r="T127" s="33"/>
+      <c r="U127" s="33"/>
       <c r="V127" s="8"/>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
@@ -6587,9 +6433,9 @@
       <c r="C128" s="16"/>
       <c r="D128" s="23"/>
       <c r="E128" s="17"/>
-      <c r="F128" s="46"/>
+      <c r="F128" s="43"/>
       <c r="G128" s="23"/>
-      <c r="H128" s="38"/>
+      <c r="H128" s="35"/>
       <c r="I128" s="31"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
@@ -6601,8 +6447,8 @@
       <c r="Q128" s="8"/>
       <c r="R128" s="8"/>
       <c r="S128" s="8"/>
-      <c r="T128" s="36"/>
-      <c r="U128" s="36"/>
+      <c r="T128" s="33"/>
+      <c r="U128" s="33"/>
       <c r="V128" s="8"/>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.25">
@@ -6611,9 +6457,9 @@
       <c r="C129" s="16"/>
       <c r="D129" s="23"/>
       <c r="E129" s="17"/>
-      <c r="F129" s="46"/>
+      <c r="F129" s="43"/>
       <c r="G129" s="23"/>
-      <c r="H129" s="38"/>
+      <c r="H129" s="35"/>
       <c r="I129" s="31"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
@@ -6625,8 +6471,8 @@
       <c r="Q129" s="8"/>
       <c r="R129" s="8"/>
       <c r="S129" s="8"/>
-      <c r="T129" s="36"/>
-      <c r="U129" s="36"/>
+      <c r="T129" s="33"/>
+      <c r="U129" s="33"/>
       <c r="V129" s="8"/>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.25">
@@ -6635,9 +6481,9 @@
       <c r="C130" s="16"/>
       <c r="D130" s="23"/>
       <c r="E130" s="17"/>
-      <c r="F130" s="46"/>
+      <c r="F130" s="43"/>
       <c r="G130" s="23"/>
-      <c r="H130" s="38"/>
+      <c r="H130" s="35"/>
       <c r="I130" s="31"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
@@ -6649,8 +6495,8 @@
       <c r="Q130" s="8"/>
       <c r="R130" s="8"/>
       <c r="S130" s="8"/>
-      <c r="T130" s="36"/>
-      <c r="U130" s="36"/>
+      <c r="T130" s="33"/>
+      <c r="U130" s="33"/>
       <c r="V130" s="8"/>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.25">
@@ -6659,9 +6505,9 @@
       <c r="C131" s="16"/>
       <c r="D131" s="23"/>
       <c r="E131" s="17"/>
-      <c r="F131" s="46"/>
+      <c r="F131" s="43"/>
       <c r="G131" s="23"/>
-      <c r="H131" s="38"/>
+      <c r="H131" s="35"/>
       <c r="I131" s="31"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
@@ -6673,8 +6519,8 @@
       <c r="Q131" s="8"/>
       <c r="R131" s="8"/>
       <c r="S131" s="8"/>
-      <c r="T131" s="36"/>
-      <c r="U131" s="36"/>
+      <c r="T131" s="33"/>
+      <c r="U131" s="33"/>
       <c r="V131" s="8"/>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.25">
@@ -6683,9 +6529,9 @@
       <c r="C132" s="16"/>
       <c r="D132" s="23"/>
       <c r="E132" s="17"/>
-      <c r="F132" s="46"/>
+      <c r="F132" s="43"/>
       <c r="G132" s="23"/>
-      <c r="H132" s="38"/>
+      <c r="H132" s="35"/>
       <c r="I132" s="31"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
@@ -6697,8 +6543,8 @@
       <c r="Q132" s="8"/>
       <c r="R132" s="8"/>
       <c r="S132" s="8"/>
-      <c r="T132" s="36"/>
-      <c r="U132" s="36"/>
+      <c r="T132" s="33"/>
+      <c r="U132" s="33"/>
       <c r="V132" s="8"/>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.25">
@@ -6707,9 +6553,9 @@
       <c r="C133" s="16"/>
       <c r="D133" s="23"/>
       <c r="E133" s="17"/>
-      <c r="F133" s="46"/>
+      <c r="F133" s="43"/>
       <c r="G133" s="23"/>
-      <c r="H133" s="38"/>
+      <c r="H133" s="35"/>
       <c r="I133" s="31"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
@@ -6721,8 +6567,8 @@
       <c r="Q133" s="8"/>
       <c r="R133" s="8"/>
       <c r="S133" s="8"/>
-      <c r="T133" s="36"/>
-      <c r="U133" s="36"/>
+      <c r="T133" s="33"/>
+      <c r="U133" s="33"/>
       <c r="V133" s="8"/>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.25">
@@ -6731,9 +6577,9 @@
       <c r="C134" s="16"/>
       <c r="D134" s="23"/>
       <c r="E134" s="17"/>
-      <c r="F134" s="46"/>
+      <c r="F134" s="43"/>
       <c r="G134" s="23"/>
-      <c r="H134" s="38"/>
+      <c r="H134" s="35"/>
       <c r="I134" s="31"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
@@ -6745,8 +6591,8 @@
       <c r="Q134" s="8"/>
       <c r="R134" s="8"/>
       <c r="S134" s="8"/>
-      <c r="T134" s="36"/>
-      <c r="U134" s="36"/>
+      <c r="T134" s="33"/>
+      <c r="U134" s="33"/>
       <c r="V134" s="8"/>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.25">
@@ -6755,9 +6601,9 @@
       <c r="C135" s="16"/>
       <c r="D135" s="23"/>
       <c r="E135" s="17"/>
-      <c r="F135" s="46"/>
+      <c r="F135" s="43"/>
       <c r="G135" s="23"/>
-      <c r="H135" s="38"/>
+      <c r="H135" s="35"/>
       <c r="I135" s="31"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
@@ -6769,8 +6615,8 @@
       <c r="Q135" s="8"/>
       <c r="R135" s="8"/>
       <c r="S135" s="8"/>
-      <c r="T135" s="36"/>
-      <c r="U135" s="36"/>
+      <c r="T135" s="33"/>
+      <c r="U135" s="33"/>
       <c r="V135" s="8"/>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.25">
@@ -6779,9 +6625,9 @@
       <c r="C136" s="16"/>
       <c r="D136" s="23"/>
       <c r="E136" s="17"/>
-      <c r="F136" s="46"/>
+      <c r="F136" s="43"/>
       <c r="G136" s="23"/>
-      <c r="H136" s="38"/>
+      <c r="H136" s="35"/>
       <c r="I136" s="31"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
@@ -6793,8 +6639,8 @@
       <c r="Q136" s="8"/>
       <c r="R136" s="8"/>
       <c r="S136" s="8"/>
-      <c r="T136" s="36"/>
-      <c r="U136" s="36"/>
+      <c r="T136" s="33"/>
+      <c r="U136" s="33"/>
       <c r="V136" s="8"/>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.25">
@@ -6803,9 +6649,9 @@
       <c r="C137" s="16"/>
       <c r="D137" s="23"/>
       <c r="E137" s="17"/>
-      <c r="F137" s="46"/>
+      <c r="F137" s="43"/>
       <c r="G137" s="23"/>
-      <c r="H137" s="38"/>
+      <c r="H137" s="35"/>
       <c r="I137" s="31"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
@@ -6817,8 +6663,8 @@
       <c r="Q137" s="8"/>
       <c r="R137" s="8"/>
       <c r="S137" s="8"/>
-      <c r="T137" s="36"/>
-      <c r="U137" s="36"/>
+      <c r="T137" s="33"/>
+      <c r="U137" s="33"/>
       <c r="V137" s="8"/>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.25">
@@ -6827,9 +6673,9 @@
       <c r="C138" s="16"/>
       <c r="D138" s="23"/>
       <c r="E138" s="17"/>
-      <c r="F138" s="46"/>
+      <c r="F138" s="43"/>
       <c r="G138" s="23"/>
-      <c r="H138" s="38"/>
+      <c r="H138" s="35"/>
       <c r="I138" s="31"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
@@ -6841,8 +6687,8 @@
       <c r="Q138" s="8"/>
       <c r="R138" s="8"/>
       <c r="S138" s="8"/>
-      <c r="T138" s="36"/>
-      <c r="U138" s="36"/>
+      <c r="T138" s="33"/>
+      <c r="U138" s="33"/>
       <c r="V138" s="8"/>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.25">
@@ -6851,9 +6697,9 @@
       <c r="C139" s="16"/>
       <c r="D139" s="23"/>
       <c r="E139" s="17"/>
-      <c r="F139" s="46"/>
+      <c r="F139" s="43"/>
       <c r="G139" s="23"/>
-      <c r="H139" s="38"/>
+      <c r="H139" s="35"/>
       <c r="I139" s="31"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
@@ -6865,8 +6711,8 @@
       <c r="Q139" s="8"/>
       <c r="R139" s="8"/>
       <c r="S139" s="8"/>
-      <c r="T139" s="36"/>
-      <c r="U139" s="36"/>
+      <c r="T139" s="33"/>
+      <c r="U139" s="33"/>
       <c r="V139" s="8"/>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.25">
@@ -6875,9 +6721,9 @@
       <c r="C140" s="16"/>
       <c r="D140" s="23"/>
       <c r="E140" s="17"/>
-      <c r="F140" s="46"/>
+      <c r="F140" s="43"/>
       <c r="G140" s="23"/>
-      <c r="H140" s="38"/>
+      <c r="H140" s="35"/>
       <c r="I140" s="31"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
@@ -6889,8 +6735,8 @@
       <c r="Q140" s="8"/>
       <c r="R140" s="8"/>
       <c r="S140" s="8"/>
-      <c r="T140" s="36"/>
-      <c r="U140" s="36"/>
+      <c r="T140" s="33"/>
+      <c r="U140" s="33"/>
       <c r="V140" s="8"/>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.25">
@@ -6899,9 +6745,9 @@
       <c r="C141" s="16"/>
       <c r="D141" s="23"/>
       <c r="E141" s="17"/>
-      <c r="F141" s="46"/>
+      <c r="F141" s="43"/>
       <c r="G141" s="23"/>
-      <c r="H141" s="38"/>
+      <c r="H141" s="35"/>
       <c r="I141" s="31"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
@@ -6913,8 +6759,8 @@
       <c r="Q141" s="8"/>
       <c r="R141" s="8"/>
       <c r="S141" s="8"/>
-      <c r="T141" s="36"/>
-      <c r="U141" s="36"/>
+      <c r="T141" s="33"/>
+      <c r="U141" s="33"/>
       <c r="V141" s="8"/>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.25">
@@ -6923,9 +6769,9 @@
       <c r="C142" s="16"/>
       <c r="D142" s="23"/>
       <c r="E142" s="17"/>
-      <c r="F142" s="46"/>
+      <c r="F142" s="43"/>
       <c r="G142" s="23"/>
-      <c r="H142" s="38"/>
+      <c r="H142" s="35"/>
       <c r="I142" s="31"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
@@ -6937,8 +6783,8 @@
       <c r="Q142" s="8"/>
       <c r="R142" s="8"/>
       <c r="S142" s="8"/>
-      <c r="T142" s="36"/>
-      <c r="U142" s="36"/>
+      <c r="T142" s="33"/>
+      <c r="U142" s="33"/>
       <c r="V142" s="8"/>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.25">
@@ -6947,9 +6793,9 @@
       <c r="C143" s="16"/>
       <c r="D143" s="23"/>
       <c r="E143" s="17"/>
-      <c r="F143" s="46"/>
+      <c r="F143" s="43"/>
       <c r="G143" s="23"/>
-      <c r="H143" s="38"/>
+      <c r="H143" s="35"/>
       <c r="I143" s="31"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
@@ -6961,8 +6807,8 @@
       <c r="Q143" s="8"/>
       <c r="R143" s="8"/>
       <c r="S143" s="8"/>
-      <c r="T143" s="36"/>
-      <c r="U143" s="36"/>
+      <c r="T143" s="33"/>
+      <c r="U143" s="33"/>
       <c r="V143" s="8"/>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.25">
@@ -6971,9 +6817,9 @@
       <c r="C144" s="16"/>
       <c r="D144" s="23"/>
       <c r="E144" s="17"/>
-      <c r="F144" s="46"/>
+      <c r="F144" s="43"/>
       <c r="G144" s="23"/>
-      <c r="H144" s="38"/>
+      <c r="H144" s="35"/>
       <c r="I144" s="31"/>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
@@ -6985,8 +6831,8 @@
       <c r="Q144" s="8"/>
       <c r="R144" s="8"/>
       <c r="S144" s="8"/>
-      <c r="T144" s="36"/>
-      <c r="U144" s="36"/>
+      <c r="T144" s="33"/>
+      <c r="U144" s="33"/>
       <c r="V144" s="8"/>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.25">
@@ -6995,9 +6841,9 @@
       <c r="C145" s="16"/>
       <c r="D145" s="23"/>
       <c r="E145" s="17"/>
-      <c r="F145" s="46"/>
+      <c r="F145" s="43"/>
       <c r="G145" s="23"/>
-      <c r="H145" s="38"/>
+      <c r="H145" s="35"/>
       <c r="I145" s="31"/>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
@@ -7009,8 +6855,8 @@
       <c r="Q145" s="8"/>
       <c r="R145" s="8"/>
       <c r="S145" s="8"/>
-      <c r="T145" s="36"/>
-      <c r="U145" s="36"/>
+      <c r="T145" s="33"/>
+      <c r="U145" s="33"/>
       <c r="V145" s="8"/>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.25">
@@ -7019,9 +6865,9 @@
       <c r="C146" s="16"/>
       <c r="D146" s="23"/>
       <c r="E146" s="17"/>
-      <c r="F146" s="46"/>
+      <c r="F146" s="43"/>
       <c r="G146" s="23"/>
-      <c r="H146" s="38"/>
+      <c r="H146" s="35"/>
       <c r="I146" s="31"/>
       <c r="J146" s="8"/>
       <c r="K146" s="8"/>
@@ -7033,8 +6879,8 @@
       <c r="Q146" s="8"/>
       <c r="R146" s="8"/>
       <c r="S146" s="8"/>
-      <c r="T146" s="36"/>
-      <c r="U146" s="36"/>
+      <c r="T146" s="33"/>
+      <c r="U146" s="33"/>
       <c r="V146" s="8"/>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.25">
@@ -7043,9 +6889,9 @@
       <c r="C147" s="16"/>
       <c r="D147" s="23"/>
       <c r="E147" s="17"/>
-      <c r="F147" s="46"/>
+      <c r="F147" s="43"/>
       <c r="G147" s="23"/>
-      <c r="H147" s="38"/>
+      <c r="H147" s="35"/>
       <c r="I147" s="31"/>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
@@ -7057,8 +6903,8 @@
       <c r="Q147" s="8"/>
       <c r="R147" s="8"/>
       <c r="S147" s="8"/>
-      <c r="T147" s="36"/>
-      <c r="U147" s="36"/>
+      <c r="T147" s="33"/>
+      <c r="U147" s="33"/>
       <c r="V147" s="8"/>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.25">
@@ -7067,9 +6913,9 @@
       <c r="C148" s="16"/>
       <c r="D148" s="23"/>
       <c r="E148" s="17"/>
-      <c r="F148" s="46"/>
+      <c r="F148" s="43"/>
       <c r="G148" s="23"/>
-      <c r="H148" s="38"/>
+      <c r="H148" s="35"/>
       <c r="I148" s="31"/>
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
@@ -7081,8 +6927,8 @@
       <c r="Q148" s="8"/>
       <c r="R148" s="8"/>
       <c r="S148" s="8"/>
-      <c r="T148" s="36"/>
-      <c r="U148" s="36"/>
+      <c r="T148" s="33"/>
+      <c r="U148" s="33"/>
       <c r="V148" s="8"/>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.25">
@@ -7091,9 +6937,9 @@
       <c r="C149" s="16"/>
       <c r="D149" s="23"/>
       <c r="E149" s="17"/>
-      <c r="F149" s="46"/>
+      <c r="F149" s="43"/>
       <c r="G149" s="23"/>
-      <c r="H149" s="38"/>
+      <c r="H149" s="35"/>
       <c r="I149" s="31"/>
       <c r="J149" s="8"/>
       <c r="K149" s="8"/>
@@ -7105,8 +6951,8 @@
       <c r="Q149" s="8"/>
       <c r="R149" s="8"/>
       <c r="S149" s="8"/>
-      <c r="T149" s="36"/>
-      <c r="U149" s="36"/>
+      <c r="T149" s="33"/>
+      <c r="U149" s="33"/>
       <c r="V149" s="8"/>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.25">
@@ -7115,9 +6961,9 @@
       <c r="C150" s="16"/>
       <c r="D150" s="23"/>
       <c r="E150" s="17"/>
-      <c r="F150" s="46"/>
+      <c r="F150" s="43"/>
       <c r="G150" s="23"/>
-      <c r="H150" s="38"/>
+      <c r="H150" s="35"/>
       <c r="I150" s="31"/>
       <c r="J150" s="8"/>
       <c r="K150" s="8"/>
@@ -7129,8 +6975,8 @@
       <c r="Q150" s="8"/>
       <c r="R150" s="8"/>
       <c r="S150" s="8"/>
-      <c r="T150" s="36"/>
-      <c r="U150" s="36"/>
+      <c r="T150" s="33"/>
+      <c r="U150" s="33"/>
       <c r="V150" s="8"/>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.25">
@@ -7139,9 +6985,9 @@
       <c r="C151" s="16"/>
       <c r="D151" s="23"/>
       <c r="E151" s="17"/>
-      <c r="F151" s="46"/>
+      <c r="F151" s="43"/>
       <c r="G151" s="23"/>
-      <c r="H151" s="38"/>
+      <c r="H151" s="35"/>
       <c r="I151" s="31"/>
       <c r="J151" s="8"/>
       <c r="K151" s="8"/>
@@ -7153,8 +6999,8 @@
       <c r="Q151" s="8"/>
       <c r="R151" s="8"/>
       <c r="S151" s="8"/>
-      <c r="T151" s="36"/>
-      <c r="U151" s="36"/>
+      <c r="T151" s="33"/>
+      <c r="U151" s="33"/>
       <c r="V151" s="8"/>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.25">
@@ -7163,9 +7009,9 @@
       <c r="C152" s="16"/>
       <c r="D152" s="23"/>
       <c r="E152" s="17"/>
-      <c r="F152" s="46"/>
+      <c r="F152" s="43"/>
       <c r="G152" s="23"/>
-      <c r="H152" s="38"/>
+      <c r="H152" s="35"/>
       <c r="I152" s="31"/>
       <c r="J152" s="8"/>
       <c r="K152" s="8"/>
@@ -7177,8 +7023,8 @@
       <c r="Q152" s="8"/>
       <c r="R152" s="8"/>
       <c r="S152" s="8"/>
-      <c r="T152" s="36"/>
-      <c r="U152" s="36"/>
+      <c r="T152" s="33"/>
+      <c r="U152" s="33"/>
       <c r="V152" s="8"/>
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.25">
@@ -7187,9 +7033,9 @@
       <c r="C153" s="16"/>
       <c r="D153" s="23"/>
       <c r="E153" s="17"/>
-      <c r="F153" s="46"/>
+      <c r="F153" s="43"/>
       <c r="G153" s="23"/>
-      <c r="H153" s="38"/>
+      <c r="H153" s="35"/>
       <c r="I153" s="31"/>
       <c r="J153" s="8"/>
       <c r="K153" s="8"/>
@@ -7201,8 +7047,8 @@
       <c r="Q153" s="8"/>
       <c r="R153" s="8"/>
       <c r="S153" s="8"/>
-      <c r="T153" s="36"/>
-      <c r="U153" s="36"/>
+      <c r="T153" s="33"/>
+      <c r="U153" s="33"/>
       <c r="V153" s="8"/>
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.25">
@@ -7211,9 +7057,9 @@
       <c r="C154" s="16"/>
       <c r="D154" s="23"/>
       <c r="E154" s="17"/>
-      <c r="F154" s="46"/>
+      <c r="F154" s="43"/>
       <c r="G154" s="23"/>
-      <c r="H154" s="38"/>
+      <c r="H154" s="35"/>
       <c r="I154" s="31"/>
       <c r="J154" s="8"/>
       <c r="K154" s="8"/>
@@ -7225,8 +7071,8 @@
       <c r="Q154" s="8"/>
       <c r="R154" s="8"/>
       <c r="S154" s="8"/>
-      <c r="T154" s="36"/>
-      <c r="U154" s="36"/>
+      <c r="T154" s="33"/>
+      <c r="U154" s="33"/>
       <c r="V154" s="8"/>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.25">
@@ -7235,9 +7081,9 @@
       <c r="C155" s="16"/>
       <c r="D155" s="23"/>
       <c r="E155" s="17"/>
-      <c r="F155" s="46"/>
+      <c r="F155" s="43"/>
       <c r="G155" s="23"/>
-      <c r="H155" s="38"/>
+      <c r="H155" s="35"/>
       <c r="I155" s="31"/>
       <c r="J155" s="8"/>
       <c r="K155" s="8"/>
@@ -7249,8 +7095,8 @@
       <c r="Q155" s="8"/>
       <c r="R155" s="8"/>
       <c r="S155" s="8"/>
-      <c r="T155" s="36"/>
-      <c r="U155" s="36"/>
+      <c r="T155" s="33"/>
+      <c r="U155" s="33"/>
       <c r="V155" s="8"/>
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.25">
@@ -7259,9 +7105,9 @@
       <c r="C156" s="16"/>
       <c r="D156" s="23"/>
       <c r="E156" s="17"/>
-      <c r="F156" s="46"/>
+      <c r="F156" s="43"/>
       <c r="G156" s="23"/>
-      <c r="H156" s="38"/>
+      <c r="H156" s="35"/>
       <c r="I156" s="31"/>
       <c r="J156" s="8"/>
       <c r="K156" s="8"/>
@@ -7273,8 +7119,8 @@
       <c r="Q156" s="8"/>
       <c r="R156" s="8"/>
       <c r="S156" s="8"/>
-      <c r="T156" s="36"/>
-      <c r="U156" s="36"/>
+      <c r="T156" s="33"/>
+      <c r="U156" s="33"/>
       <c r="V156" s="8"/>
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.25">
@@ -7283,9 +7129,9 @@
       <c r="C157" s="16"/>
       <c r="D157" s="23"/>
       <c r="E157" s="17"/>
-      <c r="F157" s="46"/>
+      <c r="F157" s="43"/>
       <c r="G157" s="23"/>
-      <c r="H157" s="38"/>
+      <c r="H157" s="35"/>
       <c r="I157" s="31"/>
       <c r="J157" s="8"/>
       <c r="K157" s="8"/>
@@ -7297,57 +7143,9 @@
       <c r="Q157" s="8"/>
       <c r="R157" s="8"/>
       <c r="S157" s="8"/>
-      <c r="T157" s="36"/>
-      <c r="U157" s="36"/>
+      <c r="T157" s="33"/>
+      <c r="U157" s="33"/>
       <c r="V157" s="8"/>
-    </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A158" s="15"/>
-      <c r="B158" s="15"/>
-      <c r="C158" s="16"/>
-      <c r="D158" s="23"/>
-      <c r="E158" s="17"/>
-      <c r="F158" s="46"/>
-      <c r="G158" s="23"/>
-      <c r="H158" s="38"/>
-      <c r="I158" s="31"/>
-      <c r="J158" s="8"/>
-      <c r="K158" s="8"/>
-      <c r="L158" s="8"/>
-      <c r="M158" s="8"/>
-      <c r="N158" s="8"/>
-      <c r="O158" s="8"/>
-      <c r="P158" s="8"/>
-      <c r="Q158" s="8"/>
-      <c r="R158" s="8"/>
-      <c r="S158" s="8"/>
-      <c r="T158" s="36"/>
-      <c r="U158" s="36"/>
-      <c r="V158" s="8"/>
-    </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A159" s="15"/>
-      <c r="B159" s="15"/>
-      <c r="C159" s="16"/>
-      <c r="D159" s="23"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="46"/>
-      <c r="G159" s="23"/>
-      <c r="H159" s="38"/>
-      <c r="I159" s="31"/>
-      <c r="J159" s="8"/>
-      <c r="K159" s="8"/>
-      <c r="L159" s="8"/>
-      <c r="M159" s="8"/>
-      <c r="N159" s="8"/>
-      <c r="O159" s="8"/>
-      <c r="P159" s="8"/>
-      <c r="Q159" s="8"/>
-      <c r="R159" s="8"/>
-      <c r="S159" s="8"/>
-      <c r="T159" s="36"/>
-      <c r="U159" s="36"/>
-      <c r="V159" s="8"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0"/>
@@ -7356,43 +7154,43 @@
     <mergeCell ref="A7:M7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="C11:F11">
+  <conditionalFormatting sqref="C10:F10">
     <cfRule type="expression" dxfId="47" priority="10" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:F33">
+  <conditionalFormatting sqref="C11:F31">
     <cfRule type="expression" dxfId="46" priority="8" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:F54">
+  <conditionalFormatting sqref="C32:F52">
     <cfRule type="expression" dxfId="45" priority="6" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55:F75">
+  <conditionalFormatting sqref="C53:F73">
     <cfRule type="expression" dxfId="44" priority="5" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C76:F159">
+  <conditionalFormatting sqref="C74:F157">
     <cfRule type="expression" dxfId="43" priority="1" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
+  <conditionalFormatting sqref="G10">
     <cfRule type="expression" dxfId="42" priority="9" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G159">
+  <conditionalFormatting sqref="G11:G157">
     <cfRule type="expression" dxfId="41" priority="7" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="I11:J11 I13:J159" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="I10:J10 I11:J157" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="records@federation.org" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -7401,6 +7199,7 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup scale="61" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -7421,85 +7220,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-    </row>
-    <row r="2" spans="1:22" s="39" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+    </row>
+    <row r="2" spans="1:22" s="36" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="39" t="s">
+      <c r="M2" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="N2" s="39" t="s">
+      <c r="O2" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="Q2" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" s="39" t="s">
+      <c r="R2" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="S2" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="T2" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="U2" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="V2" s="39" t="s">
-        <v>73</v>
+      <c r="V2" s="36" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3"/>
       <c r="E3" s="1"/>
@@ -7508,70 +7307,70 @@
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="40" t="s">
+      <c r="E4" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="F4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -7605,7 +7404,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="50" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="47" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="5" width="26.7109375" customWidth="1"/>
@@ -7616,507 +7415,507 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="70"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="52"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="54"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="55"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="50" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="73"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="52" t="s">
+      <c r="E5" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="50"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="52"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="54"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="55"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="54"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="55"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="54"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="55"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="54"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="55"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="55"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="54"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="55"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="54"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="55"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="54"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="55"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="54"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="55"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="54"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="55"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="54"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="55"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="54"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="55"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="55"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="54"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="55"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="54"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="55"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="54"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="55"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="58"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="55"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="58"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="58"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="58"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="58"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="58"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="58"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="58"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="58"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="58"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="58"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="58"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="58"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="58"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="58"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="58"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="58"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="61"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="58"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23"/>
@@ -8187,7 +7986,7 @@
   <cols>
     <col min="1" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="5" width="23.140625" style="48" customWidth="1"/>
+    <col min="4" max="5" width="23.140625" style="45" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" customWidth="1"/>
     <col min="8" max="8" width="25.42578125" customWidth="1"/>
@@ -8196,55 +7995,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>93</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="49"/>
+        <v>41</v>
+      </c>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>77</v>
+      <c r="F3" s="36" t="s">
+        <v>76</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3"/>
@@ -8252,25 +8051,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>78</v>
+      <c r="F4" s="36" t="s">
+        <v>77</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4"/>
@@ -8278,25 +8077,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>75</v>
+      <c r="F5" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5"/>
@@ -8304,25 +8103,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>76</v>
+      <c r="F6" s="36" t="s">
+        <v>75</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6"/>
@@ -8330,25 +8129,25 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7"/>
@@ -8356,25 +8155,25 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>74</v>
+      <c r="F8" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8"/>
@@ -8382,25 +8181,25 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>63</v>
+      <c r="F9" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9"/>
@@ -8408,25 +8207,25 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="39" t="s">
+      <c r="G10" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10"/>
@@ -8434,25 +8233,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>64</v>
+      <c r="F11" s="36" t="s">
+        <v>63</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11"/>
@@ -8460,25 +8259,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>66</v>
+      <c r="F12" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12"/>
@@ -8486,25 +8285,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>65</v>
+      <c r="F13" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13"/>
@@ -8512,25 +8311,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>67</v>
+      <c r="F14" s="36" t="s">
+        <v>66</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14"/>
@@ -8538,25 +8337,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>68</v>
+      <c r="F15" s="36" t="s">
+        <v>67</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15"/>
@@ -8564,25 +8363,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>69</v>
+      <c r="F16" s="36" t="s">
+        <v>68</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16"/>
@@ -8590,25 +8389,25 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>70</v>
+      <c r="F17" s="36" t="s">
+        <v>69</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17"/>
@@ -8616,25 +8415,25 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>71</v>
+      <c r="F18" s="36" t="s">
+        <v>70</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18"/>
@@ -8642,25 +8441,25 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>73</v>
+      <c r="F19" s="36" t="s">
+        <v>72</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H19" s="14"/>
       <c r="J19"/>
@@ -8672,7 +8471,7 @@
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/owlcms/src/main/resources/templates/registration/SBDE.xlsx
+++ b/owlcms/src/main/resources/templates/registration/SBDE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\usaw-owlcms\local\templates\registration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\registration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFB7A2F-AD24-4E50-B266-94970C65111B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD68300-3437-4B1B-829D-7933A5A3B409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId6"/>
+    <pivotCache cacheId="9" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -193,8 +193,93 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jean-François Lamy</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AD0D4021-F377-4613-9645-B425EF7B630B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jx:area(lastCell="V3")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{F484B613-7CE3-4869-B306-F7C6BC24CCE1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jx:each(items="groups" var="g" lastCell="V3")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jean-François Lamy</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{BAA11956-0102-451B-9633-F65EE62A5BBD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">jx:area(lastCell="G18")
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{1A4E3F3C-9CC0-456B-A589-0F75151D2499}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(items="groups" var="g" lastCell="G18")
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="116">
   <si>
     <t>M/F</t>
   </si>
@@ -256,9 +341,6 @@
     <t>${t.get("Registration.groupsOverwrite")}</t>
   </si>
   <si>
-    <t>&lt;/jx:forEach&gt;</t>
-  </si>
-  <si>
     <t>${l.membership}</t>
   </si>
   <si>
@@ -317,9 +399,6 @@
   </si>
   <si>
     <t>${competition.competitionDateAsDate}</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${groups}" var="g" varStatus="index"&gt;</t>
   </si>
   <si>
     <t>${g.name}</t>
@@ -2191,23 +2270,23 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Jean-François Lamy" refreshedDate="45527.713239699071" createdVersion="8" refreshedVersion="8" recordCount="20" xr:uid="{00000000-000A-0000-FFFF-FFFF09000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Jean-François Lamy" refreshedDate="45532.984339236114" createdVersion="8" refreshedVersion="8" recordCount="18" xr:uid="{00000000-000A-0000-FFFF-FFFF09000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G600" sheet="Group Data"/>
+    <worksheetSource ref="A1:G598" sheet="Group Data"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Group" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
-        <s v="&lt;jx:forEach items=&quot;${groups}&quot; var=&quot;g&quot; varStatus=&quot;index&quot;&gt;"/>
         <s v="${g.name}"/>
-        <s v="&lt;/jx:forEach&gt;"/>
         <m/>
+        <s v="&lt;jx:forEach items=&quot;${groups}&quot; var=&quot;g&quot; varStatus=&quot;index&quot;&gt;" u="1"/>
+        <s v="&lt;/jx:forEach&gt;" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Platform" numFmtId="0">
       <sharedItems containsBlank="1" count="2">
+        <s v="${g.platform}"/>
         <m/>
-        <s v="${g.platform}"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Description" numFmtId="0">
@@ -2215,19 +2294,18 @@
     </cacheField>
     <cacheField name="Weigh-in Time" numFmtId="49">
       <sharedItems containsBlank="1" count="2">
+        <s v="${g.weighInShortDateTime}"/>
         <m/>
-        <s v="${g.weighInShortDateTime}"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Start Time" numFmtId="49">
       <sharedItems containsBlank="1" count="2">
+        <s v="${g.competitionShortDateTime}"/>
         <m/>
-        <s v="${g.competitionShortDateTime}"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Role" numFmtId="0">
       <sharedItems containsBlank="1" count="18">
-        <m/>
         <s v="${t.get(&quot;Weighin1&quot;)}"/>
         <s v="${t.get(&quot;Weighin2&quot;)}"/>
         <s v="${t.get(&quot;Announcer&quot;)}"/>
@@ -2245,11 +2323,11 @@
         <s v="${t.get(&quot;Jury4&quot;)}"/>
         <s v="${t.get(&quot;Jury5&quot;)}"/>
         <s v="${t.get(&quot;Reserve&quot;)}"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Official" numFmtId="0">
       <sharedItems containsBlank="1" count="18">
-        <m/>
         <s v="${g.weighIn1}"/>
         <s v="${g.weighIn2}"/>
         <s v="${g.announcer}"/>
@@ -2267,6 +2345,7 @@
         <s v="${g.jury4}"/>
         <s v="${g.jury5}"/>
         <s v="${g.reserve}"/>
+        <m/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -2279,212 +2358,181 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="18">
   <r>
     <x v="0"/>
     <x v="0"/>
-    <m/>
+    <s v="${g.description}"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <s v="${g.description}"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <s v="${g.description}"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <s v="${g.description}"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="3"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <s v="${g.description}"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="4"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <s v="${g.description}"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="5"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <s v="${g.description}"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="6"/>
     <x v="6"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <s v="${g.description}"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="7"/>
     <x v="7"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <s v="${g.description}"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="8"/>
     <x v="8"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <s v="${g.description}"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="9"/>
     <x v="9"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <s v="${g.description}"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="10"/>
     <x v="10"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <s v="${g.description}"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="11"/>
     <x v="11"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <s v="${g.description}"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="12"/>
     <x v="12"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <s v="${g.description}"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="13"/>
     <x v="13"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <s v="${g.description}"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="14"/>
     <x v="14"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <s v="${g.description}"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="15"/>
     <x v="15"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <s v="${g.description}"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="16"/>
     <x v="16"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <s v="${g.description}"/>
+    <m/>
     <x v="1"/>
     <x v="1"/>
     <x v="17"/>
     <x v="17"/>
   </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable2" cacheId="19" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable2" cacheId="9" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:L22" firstHeaderRow="2" firstDataRow="2" firstDataCol="6"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0">
       <items count="4">
-        <item x="1"/>
-        <item x="2"/>
         <item x="0"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0">
-      <items count="2">
-        <item x="1"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
         <item x="1"/>
       </items>
     </pivotField>
@@ -2494,8 +2542,22 @@
         <item x="1"/>
       </items>
     </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0">
       <items count="18">
+        <item x="17"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -2513,12 +2575,12 @@
         <item x="14"/>
         <item x="15"/>
         <item x="16"/>
-        <item x="17"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0">
       <items count="18">
-        <item h="1" x="0"/>
+        <item h="1" x="17"/>
+        <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -2535,7 +2597,6 @@
         <item x="14"/>
         <item x="15"/>
         <item x="16"/>
-        <item x="17"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -3324,7 +3385,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3348,7 +3409,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="24"/>
@@ -3356,7 +3417,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -3366,7 +3427,7 @@
         <v>15</v>
       </c>
       <c r="M1" s="64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N1" s="67"/>
       <c r="P1" s="22"/>
@@ -3376,14 +3437,14 @@
     </row>
     <row r="2" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="19"/>
       <c r="E2" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -3393,14 +3454,14 @@
     </row>
     <row r="3" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="21"/>
       <c r="E3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -3411,14 +3472,14 @@
     </row>
     <row r="4" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="20"/>
       <c r="E4" s="26" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -3430,7 +3491,7 @@
     <row r="5" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:22" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -3512,7 +3573,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>4</v>
@@ -3521,25 +3582,25 @@
         <v>3</v>
       </c>
       <c r="M9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="N9" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="O9" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P9" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="R9" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="S9" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>1</v>
@@ -3548,75 +3609,75 @@
         <v>2</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="E10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="J10" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="R10" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="S10" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="T10" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="N10" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="P10" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="R10" s="42" t="s">
+      <c r="U10" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" s="42" t="s">
         <v>111</v>
-      </c>
-      <c r="S10" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="T10" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="42" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -7204,8 +7265,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
@@ -7233,154 +7294,136 @@
         <v>3</v>
       </c>
       <c r="B2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="36" t="s">
+      <c r="O2" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" s="36" t="s">
+      <c r="Q2" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q2" s="36" t="s">
+      <c r="S2" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="T2" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="36" t="s">
+      <c r="U2" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="T2" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="36" t="s">
+      <c r="V2" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="V2" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" s="1"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7388,6 +7431,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7416,7 +7460,7 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -7435,22 +7479,22 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>95</v>
-      </c>
       <c r="F4" s="49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G4" s="54"/>
       <c r="H4" s="53"/>
@@ -7461,22 +7505,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G5" s="50"/>
       <c r="H5" s="51"/>
@@ -7487,22 +7531,22 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G6" s="54"/>
       <c r="H6" s="53"/>
@@ -7513,22 +7557,22 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G7" s="54"/>
       <c r="H7" s="53"/>
@@ -7539,22 +7583,22 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G8" s="54"/>
       <c r="H8" s="53"/>
@@ -7565,22 +7609,22 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" s="54"/>
       <c r="H9" s="53"/>
@@ -7591,22 +7635,22 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="60" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G10" s="54"/>
       <c r="H10" s="53"/>
@@ -7617,22 +7661,22 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G11" s="54"/>
       <c r="H11" s="53"/>
@@ -7643,22 +7687,22 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G12" s="54"/>
       <c r="H12" s="53"/>
@@ -7669,22 +7713,22 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G13" s="54"/>
       <c r="H13" s="53"/>
@@ -7695,22 +7739,22 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G14" s="54"/>
       <c r="H14" s="53"/>
@@ -7721,22 +7765,22 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="60" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G15" s="54"/>
       <c r="H15" s="53"/>
@@ -7747,22 +7791,22 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="60" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G16" s="54"/>
       <c r="H16" s="53"/>
@@ -7773,22 +7817,22 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G17" s="54"/>
       <c r="H17" s="53"/>
@@ -7799,22 +7843,22 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G18" s="54"/>
       <c r="H18" s="53"/>
@@ -7825,22 +7869,22 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G19" s="54"/>
       <c r="H19" s="53"/>
@@ -7851,22 +7895,22 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G20" s="54"/>
       <c r="H20" s="53"/>
@@ -7877,22 +7921,22 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G21" s="54"/>
       <c r="H21" s="53"/>
@@ -7903,7 +7947,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" s="63"/>
       <c r="C22" s="63"/>
@@ -7975,12 +8019,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J602"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J600"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A602" sqref="A602"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7996,54 +8038,74 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>98</v>
-      </c>
       <c r="C1" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="46"/>
+      <c r="E2" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2"/>
+      <c r="J2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3"/>
@@ -8051,25 +8113,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4"/>
@@ -8077,25 +8139,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5"/>
@@ -8103,25 +8165,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6"/>
@@ -8129,51 +8191,51 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8"/>
@@ -8181,51 +8243,51 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10"/>
@@ -8233,25 +8295,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F11" s="36" t="s">
         <v>63</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11"/>
@@ -8259,25 +8321,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12"/>
@@ -8285,25 +8347,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>64</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13"/>
@@ -8311,22 +8373,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>55</v>
@@ -8337,25 +8399,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15"/>
@@ -8363,25 +8425,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16"/>
@@ -8389,25 +8451,25 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17"/>
@@ -8415,68 +8477,38 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>70</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H18" s="14"/>
-      <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="46" t="s">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
         <v>101</v>
-      </c>
-      <c r="E19" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>